--- a/result/line_init.xlsx
+++ b/result/line_init.xlsx
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,46 +468,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.4349286101956574</v>
+        <v>-0.3987680445856197</v>
       </c>
       <c r="C2">
-        <v>-17.84370950389679</v>
+        <v>-17.9139751790174</v>
       </c>
       <c r="D2">
-        <v>0.4498574452126257</v>
+        <v>0.413813203209806</v>
       </c>
       <c r="E2">
-        <v>17.85137665867094</v>
+        <v>17.92170207529846</v>
       </c>
       <c r="F2">
-        <v>0.01492883501696829</v>
+        <v>0.01504515862418632</v>
       </c>
       <c r="G2">
-        <v>0.007667154774146923</v>
+        <v>0.007726896281059936</v>
       </c>
       <c r="H2">
-        <v>0.9368300276483699</v>
+        <v>0.9404727764066737</v>
       </c>
       <c r="I2">
-        <v>0.9368300276483699</v>
+        <v>0.9404727764066733</v>
       </c>
       <c r="J2">
-        <v>0.9368300276483699</v>
+        <v>0.9404727764066737</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.1991901664816307</v>
+        <v>0.2044576623006597</v>
       </c>
       <c r="M2">
         <v>1.000450150037181</v>
       </c>
       <c r="N2">
-        <v>0.1519034486931664</v>
+        <v>0.1569325374952375</v>
       </c>
       <c r="O2">
-        <v>93.68300276483698</v>
+        <v>62.69818509377825</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -515,46 +515,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4008574452117971</v>
+        <v>-0.3648132032195166</v>
       </c>
       <c r="C3">
-        <v>20.7783767378718</v>
+        <v>20.70802473101513</v>
       </c>
       <c r="D3">
-        <v>0.4210779326622065</v>
+        <v>0.3848957550851096</v>
       </c>
       <c r="E3">
-        <v>-20.7679918949343</v>
+        <v>-20.69771072906935</v>
       </c>
       <c r="F3">
-        <v>0.02022048745040944</v>
+        <v>0.02008255186559305</v>
       </c>
       <c r="G3">
-        <v>0.01038484293749775</v>
+        <v>0.01031400194578325</v>
       </c>
       <c r="H3">
-        <v>1.090294079018385</v>
+        <v>1.086568953570778</v>
       </c>
       <c r="I3">
-        <v>1.090294079018385</v>
+        <v>1.086568953570778</v>
       </c>
       <c r="J3">
-        <v>1.090294079018385</v>
+        <v>1.086568953570778</v>
       </c>
       <c r="K3">
         <v>1.000450150037181</v>
       </c>
       <c r="L3">
-        <v>0.1519034486931664</v>
+        <v>0.1569325374952375</v>
       </c>
       <c r="M3">
         <v>0.999969578776834</v>
       </c>
       <c r="N3">
-        <v>0.2082194206992183</v>
+        <v>0.2130100238375115</v>
       </c>
       <c r="O3">
-        <v>109.0294079018385</v>
+        <v>72.43793023805189</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -562,46 +562,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3924026500367099</v>
+        <v>-0.3562204724693535</v>
       </c>
       <c r="C4">
-        <v>2.524712443181148</v>
+        <v>2.454239776162101</v>
       </c>
       <c r="D4">
-        <v>0.3927085746508855</v>
+        <v>0.3565086846664001</v>
       </c>
       <c r="E4">
-        <v>-2.524555326342262</v>
+        <v>-2.454091756070778</v>
       </c>
       <c r="F4">
-        <v>0.0003059246141755567</v>
+        <v>0.0002882121970466112</v>
       </c>
       <c r="G4">
-        <v>0.0001571168388854183</v>
+        <v>0.0001480200913226426</v>
       </c>
       <c r="H4">
-        <v>0.1341081136103991</v>
+        <v>0.1301679368057669</v>
       </c>
       <c r="I4">
-        <v>0.1341081136103991</v>
+        <v>0.1301679368057669</v>
       </c>
       <c r="J4">
-        <v>0.1341081136103991</v>
+        <v>0.1301679368057669</v>
       </c>
       <c r="K4">
         <v>0.999969578776834</v>
       </c>
       <c r="L4">
-        <v>0.2082194206992183</v>
+        <v>0.2130100238375115</v>
       </c>
       <c r="M4">
         <v>0.9999272134207779</v>
       </c>
       <c r="N4">
-        <v>0.2155397338640424</v>
+        <v>0.2200912125242107</v>
       </c>
       <c r="O4">
-        <v>13.41081136103992</v>
+        <v>13.01679368057669</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -609,46 +609,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2199029831052536</v>
+        <v>-0.1837030931267072</v>
       </c>
       <c r="C5">
-        <v>-9.749793119192011</v>
+        <v>-9.820199874375827</v>
       </c>
       <c r="D5">
-        <v>0.2243602905201869</v>
+        <v>0.1882242910240366</v>
       </c>
       <c r="E5">
-        <v>9.752082304234744</v>
+        <v>9.822521872308283</v>
       </c>
       <c r="F5">
-        <v>0.004457307414933331</v>
+        <v>0.004521197897329465</v>
       </c>
       <c r="G5">
-        <v>0.002289185042732456</v>
+        <v>0.002321997932455133</v>
       </c>
       <c r="H5">
-        <v>0.5118988302394984</v>
+        <v>0.5155545234280903</v>
       </c>
       <c r="I5">
-        <v>0.5118988302394984</v>
+        <v>0.5155545234280903</v>
       </c>
       <c r="J5">
-        <v>0.5118988302394984</v>
+        <v>0.5155545234280903</v>
       </c>
       <c r="K5">
         <v>0.9999272134207779</v>
       </c>
       <c r="L5">
-        <v>0.2155397338640424</v>
+        <v>0.2200912125242107</v>
       </c>
       <c r="M5">
         <v>1.0001722774035</v>
       </c>
       <c r="N5">
-        <v>0.1896687781468159</v>
+        <v>0.1939813332929276</v>
       </c>
       <c r="O5">
-        <v>51.18988302394985</v>
+        <v>51.55545234280903</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -656,46 +656,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1830602905265253</v>
+        <v>-0.1469242910227901</v>
       </c>
       <c r="C6">
-        <v>8.262538050835884</v>
+        <v>8.192109612834845</v>
       </c>
       <c r="D6">
-        <v>0.1862598348846808</v>
+        <v>0.1500689911974788</v>
       </c>
       <c r="E6">
-        <v>-8.260894828054413</v>
+        <v>-8.190494556942658</v>
       </c>
       <c r="F6">
-        <v>0.003199544358155504</v>
+        <v>0.003144700174688764</v>
       </c>
       <c r="G6">
-        <v>0.00164322278147111</v>
+        <v>0.001615055892186135</v>
       </c>
       <c r="H6">
-        <v>0.4337024854257795</v>
+        <v>0.4299693175474191</v>
       </c>
       <c r="I6">
-        <v>0.4337024854257794</v>
+        <v>0.4299693175474191</v>
       </c>
       <c r="J6">
-        <v>0.4337024854257795</v>
+        <v>0.4299693175474191</v>
       </c>
       <c r="K6">
         <v>1.0001722774035</v>
       </c>
       <c r="L6">
-        <v>0.1896687781468159</v>
+        <v>0.1939813332929276</v>
       </c>
       <c r="M6">
-        <v>0.9999821177386031</v>
+        <v>0.999982117738603</v>
       </c>
       <c r="N6">
-        <v>0.2121014250240501</v>
+        <v>0.2161750996587256</v>
       </c>
       <c r="O6">
-        <v>43.37024854257795</v>
+        <v>42.99693175474192</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -703,46 +703,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.144373918505534</v>
+        <v>-0.1081830748256323</v>
       </c>
       <c r="C7">
-        <v>-16.61300941366242</v>
+        <v>-16.68334266903639</v>
       </c>
       <c r="D7">
-        <v>0.1573082099181786</v>
+        <v>0.1212266793403991</v>
       </c>
       <c r="E7">
-        <v>16.61965221023978</v>
+        <v>16.69004160666374</v>
       </c>
       <c r="F7">
-        <v>0.01293429141264463</v>
+        <v>0.01304360451476681</v>
       </c>
       <c r="G7">
-        <v>0.006642796577359888</v>
+        <v>0.006698937627344748</v>
       </c>
       <c r="H7">
-        <v>0.8720053790590007</v>
+        <v>0.8756824671928828</v>
       </c>
       <c r="I7">
-        <v>0.8720053790590007</v>
+        <v>0.875682467192883</v>
       </c>
       <c r="J7">
-        <v>0.8720053790590007</v>
+        <v>0.875682467192883</v>
       </c>
       <c r="K7">
-        <v>0.9999821177386031</v>
+        <v>0.999982117738603</v>
       </c>
       <c r="L7">
-        <v>0.2121014250240501</v>
+        <v>0.2161750996587256</v>
       </c>
       <c r="M7">
         <v>1.0003890011149</v>
       </c>
       <c r="N7">
-        <v>0.1677135002605735</v>
+        <v>0.1715485259414439</v>
       </c>
       <c r="O7">
-        <v>87.20053790590006</v>
+        <v>87.5682467192883</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -750,46 +750,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.1244082099184714</v>
+        <v>-0.1047766793434312</v>
       </c>
       <c r="C8">
-        <v>-8.857152277083587</v>
+        <v>-8.895338338699258</v>
       </c>
       <c r="D8">
-        <v>0.1280821643838585</v>
+        <v>0.1084821643906486</v>
       </c>
       <c r="E8">
-        <v>8.859039147525067</v>
+        <v>8.897241402624742</v>
       </c>
       <c r="F8">
-        <v>0.003673954465387055</v>
+        <v>0.003705485047217474</v>
       </c>
       <c r="G8">
-        <v>0.001886870441479616</v>
+        <v>0.001903063925484005</v>
       </c>
       <c r="H8">
-        <v>0.4647450019487451</v>
+        <v>0.4667350067885173</v>
       </c>
       <c r="I8">
-        <v>0.4647450019487451</v>
+        <v>0.4667350067885173</v>
       </c>
       <c r="J8">
-        <v>0.4647450019487451</v>
+        <v>0.4667350067885173</v>
       </c>
       <c r="K8">
         <v>1.0003890011149</v>
       </c>
       <c r="L8">
-        <v>0.1677135002605735</v>
+        <v>0.1715485259414439</v>
       </c>
       <c r="M8">
         <v>1.0006079876945</v>
       </c>
       <c r="N8">
-        <v>0.1441284226928434</v>
+        <v>0.1478339838914998</v>
       </c>
       <c r="O8">
-        <v>46.47450019487451</v>
+        <v>46.67350067885172</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -797,46 +797,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.08888216437503613</v>
+        <v>-0.08888216438748467</v>
       </c>
       <c r="C9">
-        <v>23.42583420724548</v>
+        <v>23.42583420727771</v>
       </c>
       <c r="D9">
-        <v>0.1145663701247144</v>
+        <v>0.1145663701372307</v>
       </c>
       <c r="E9">
-        <v>-23.41264330651478</v>
+        <v>-23.41264330654697</v>
       </c>
       <c r="F9">
-        <v>0.02568420574967825</v>
+        <v>0.02568420574974599</v>
       </c>
       <c r="G9">
-        <v>0.01319090073069518</v>
+        <v>0.01319090073073781</v>
       </c>
       <c r="H9">
-        <v>1.22879918130037</v>
+        <v>1.228799181302063</v>
       </c>
       <c r="I9">
-        <v>1.22879918130037</v>
+        <v>1.228799181302063</v>
       </c>
       <c r="J9">
-        <v>1.22879918130037</v>
+        <v>1.228799181302063</v>
       </c>
       <c r="K9">
         <v>1.0006079876945</v>
       </c>
       <c r="L9">
-        <v>0.1441284226928434</v>
+        <v>0.1478339838914998</v>
       </c>
       <c r="M9">
         <v>1.00004932794153</v>
       </c>
       <c r="N9">
-        <v>0.2071044903199248</v>
+        <v>0.2108100515186774</v>
       </c>
       <c r="O9">
-        <v>122.879918130037</v>
+        <v>122.8799181302063</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -844,46 +844,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.07257571009333995</v>
+        <v>-0.07257571010224492</v>
       </c>
       <c r="C10">
-        <v>1.204171882081613</v>
+        <v>1.204171882082922</v>
       </c>
       <c r="D10">
-        <v>0.07264389786911088</v>
+        <v>0.07264389787801595</v>
       </c>
       <c r="E10">
-        <v>-1.204136862186896</v>
+        <v>-1.204136862188205</v>
       </c>
       <c r="F10">
-        <v>6.818777577093094e-05</v>
+        <v>6.818777577102808e-05</v>
       </c>
       <c r="G10">
-        <v>3.501989471677014e-05</v>
+        <v>3.501989471699218e-05</v>
       </c>
       <c r="H10">
-        <v>0.06331419731830301</v>
+        <v>0.06331419731839968</v>
       </c>
       <c r="I10">
-        <v>0.06331419731830301</v>
+        <v>0.0633141973183997</v>
       </c>
       <c r="J10">
-        <v>0.06331419731830301</v>
+        <v>0.0633141973183997</v>
       </c>
       <c r="K10">
         <v>1.00004932794153</v>
       </c>
       <c r="L10">
-        <v>0.2071044903199248</v>
+        <v>0.2108100515186774</v>
       </c>
       <c r="M10">
         <v>1.00002375201704</v>
       </c>
       <c r="N10">
-        <v>0.2104373435114723</v>
+        <v>0.2141429047102356</v>
       </c>
       <c r="O10">
-        <v>6.331419731830302</v>
+        <v>6.331419731839969</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -891,46 +891,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.02867528262136075</v>
+        <v>-0.02867528262215508</v>
       </c>
       <c r="C11">
-        <v>-1.885458830472851</v>
+        <v>-1.885458830468674</v>
       </c>
       <c r="D11">
-        <v>0.02939999999987269</v>
+        <v>0.02940000000066383</v>
       </c>
       <c r="E11">
-        <v>1.885533506338982</v>
+        <v>1.885533506334805</v>
       </c>
       <c r="F11">
-        <v>0.0007247173785119437</v>
+        <v>0.0007247173785087484</v>
       </c>
       <c r="G11">
         <v>7.467586613096877e-05</v>
       </c>
       <c r="H11">
-        <v>0.09897537920885596</v>
+        <v>0.09897537920863739</v>
       </c>
       <c r="I11">
-        <v>0.09897537920885595</v>
+        <v>0.09897537920863737</v>
       </c>
       <c r="J11">
-        <v>0.09897537920885596</v>
+        <v>0.09897537920863739</v>
       </c>
       <c r="K11">
         <v>0.999969578776834</v>
       </c>
       <c r="L11">
-        <v>0.2082194206992183</v>
+        <v>0.2130100238375115</v>
       </c>
       <c r="M11">
         <v>1.0000150924645</v>
       </c>
       <c r="N11">
-        <v>0.1862371308012592</v>
+        <v>0.1910277339396018</v>
       </c>
       <c r="O11">
-        <v>9.897537920885597</v>
+        <v>9.897537920863739</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -938,46 +938,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.172805591554207</v>
+        <v>-0.1728055915494588</v>
       </c>
       <c r="C12">
-        <v>-2.057400260882095</v>
+        <v>-2.057400260915728</v>
       </c>
       <c r="D12">
-        <v>0.1738192890029443</v>
+        <v>0.1738192889982286</v>
       </c>
       <c r="E12">
-        <v>2.057504713648406</v>
+        <v>2.057504713682042</v>
       </c>
       <c r="F12">
-        <v>0.001013697448737333</v>
+        <v>0.001013697448769835</v>
       </c>
       <c r="G12">
-        <v>0.0001044527663109918</v>
+        <v>0.0001044527663145445</v>
       </c>
       <c r="H12">
-        <v>0.1083736295066307</v>
+        <v>0.108373629508369</v>
       </c>
       <c r="I12">
-        <v>0.1083736295066306</v>
+        <v>0.108373629508369</v>
       </c>
       <c r="J12">
-        <v>0.1083736295066307</v>
+        <v>0.108373629508369</v>
       </c>
       <c r="K12">
         <v>0.9999272134207779</v>
       </c>
       <c r="L12">
-        <v>0.2155397338640424</v>
+        <v>0.2200912125242107</v>
       </c>
       <c r="M12">
         <v>1.00001883173377</v>
       </c>
       <c r="N12">
-        <v>0.1877525631346255</v>
+        <v>0.1923040417943302</v>
       </c>
       <c r="O12">
-        <v>10.83736295066307</v>
+        <v>10.8373629508369</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -985,46 +985,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1437192890027794</v>
+        <v>-0.1437192889994623</v>
       </c>
       <c r="C13">
-        <v>3.094532562603183</v>
+        <v>3.094532562573008</v>
       </c>
       <c r="D13">
-        <v>0.1460010176296357</v>
+        <v>0.146001017626274</v>
       </c>
       <c r="E13">
-        <v>-3.094297450176547</v>
+        <v>-3.094297450146378</v>
       </c>
       <c r="F13">
-        <v>0.0022817286268563</v>
+        <v>0.002281728626811724</v>
       </c>
       <c r="G13">
-        <v>0.000235112426635542</v>
+        <v>0.000235112426630657</v>
       </c>
       <c r="H13">
-        <v>0.1625928476174578</v>
+        <v>0.1625928476158677</v>
       </c>
       <c r="I13">
-        <v>0.1625928476174578</v>
+        <v>0.1625928476158677</v>
       </c>
       <c r="J13">
-        <v>0.1625928476174578</v>
+        <v>0.1625928476158677</v>
       </c>
       <c r="K13">
         <v>1.00001883173377</v>
       </c>
       <c r="L13">
-        <v>0.1877525631346255</v>
+        <v>0.1923040417943302</v>
       </c>
       <c r="M13">
         <v>0.9999774616845741</v>
       </c>
       <c r="N13">
-        <v>0.2301117105228341</v>
+        <v>0.234663189182123</v>
       </c>
       <c r="O13">
-        <v>16.25928476174578</v>
+        <v>16.25928476158677</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.09700101763000886</v>
+        <v>-0.09700101762735718</v>
       </c>
       <c r="C14">
-        <v>0.9319136299458988</v>
+        <v>0.9319136299187027</v>
       </c>
       <c r="D14">
-        <v>0.09720975748145114</v>
+        <v>0.09720975747878727</v>
       </c>
       <c r="E14">
-        <v>-0.9318921211071916</v>
+        <v>-0.9318921210799969</v>
       </c>
       <c r="F14">
-        <v>0.0002087398514422772</v>
+        <v>0.0002087398514300925</v>
       </c>
       <c r="G14">
-        <v>2.15088387072182e-05</v>
+        <v>2.150883870588594e-05</v>
       </c>
       <c r="H14">
-        <v>0.04917814314280516</v>
+        <v>0.04917814314137097</v>
       </c>
       <c r="I14">
-        <v>0.04917814314280514</v>
+        <v>0.04917814314137097</v>
       </c>
       <c r="J14">
-        <v>0.04917814314280516</v>
+        <v>0.04917814314137097</v>
       </c>
       <c r="K14">
         <v>0.9999774616845741</v>
       </c>
       <c r="L14">
-        <v>0.2301117105228341</v>
+        <v>0.234663189182123</v>
       </c>
       <c r="M14">
         <v>0.999977718681453</v>
       </c>
       <c r="N14">
-        <v>0.2429440376621503</v>
+        <v>0.2474955163210651</v>
       </c>
       <c r="O14">
-        <v>4.917814314280516</v>
+        <v>4.917814314137097</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.04890975748222987</v>
+        <v>-0.04890975748065327</v>
       </c>
       <c r="C15">
-        <v>-0.6636142828149191</v>
+        <v>-0.6636142828244749</v>
       </c>
       <c r="D15">
-        <v>0.04900000000074434</v>
+        <v>0.04899999999917028</v>
       </c>
       <c r="E15">
-        <v>0.663623581526985</v>
+        <v>0.6636235815365411</v>
       </c>
       <c r="F15">
-        <v>9.02425185144648e-05</v>
+        <v>9.024251851701831e-05</v>
       </c>
       <c r="G15">
-        <v>9.298712065897163e-06</v>
+        <v>9.29871206623023e-06</v>
       </c>
       <c r="H15">
-        <v>0.03492596706432022</v>
+        <v>0.03492596706481435</v>
       </c>
       <c r="I15">
-        <v>0.03492596706432023</v>
+        <v>0.03492596706481435</v>
       </c>
       <c r="J15">
-        <v>0.03492596706432023</v>
+        <v>0.03492596706481435</v>
       </c>
       <c r="K15">
         <v>0.999977718681453</v>
       </c>
       <c r="L15">
-        <v>0.2429440376621503</v>
+        <v>0.2474955163210651</v>
       </c>
       <c r="M15">
         <v>1.00000163201113</v>
       </c>
       <c r="N15">
-        <v>0.2352537205116067</v>
+        <v>0.2398051991704088</v>
       </c>
       <c r="O15">
-        <v>3.492596706432023</v>
+        <v>3.492596706481435</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.04188591638466355</v>
+        <v>-0.041885916383225</v>
       </c>
       <c r="C16">
-        <v>0.7469961356685535</v>
+        <v>0.7469961356594031</v>
       </c>
       <c r="D16">
-        <v>0.04200000000042686</v>
+        <v>0.04199999999898552</v>
       </c>
       <c r="E16">
-        <v>-0.7469843803373427</v>
+        <v>-0.7469843803281928</v>
       </c>
       <c r="F16">
-        <v>0.0001140836157633093</v>
+        <v>0.0001140836157605199</v>
       </c>
       <c r="G16">
-        <v>1.17553312107832e-05</v>
+        <v>1.175533121033911e-05</v>
       </c>
       <c r="H16">
-        <v>0.03926941893674745</v>
+        <v>0.03926941893626371</v>
       </c>
       <c r="I16">
-        <v>0.03926941893674743</v>
+        <v>0.03926941893626369</v>
       </c>
       <c r="J16">
-        <v>0.03926941893674745</v>
+        <v>0.03926941893626371</v>
       </c>
       <c r="K16">
-        <v>0.9999821177386031</v>
+        <v>0.999982117738603</v>
       </c>
       <c r="L16">
-        <v>0.2121014250240501</v>
+        <v>0.2161750996587256</v>
       </c>
       <c r="M16">
         <v>0.99997497883425</v>
       </c>
       <c r="N16">
-        <v>0.2208748539543989</v>
+        <v>0.224948528588967</v>
       </c>
       <c r="O16">
-        <v>3.926941893674745</v>
+        <v>3.92694189362637</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.04199066003309072</v>
+        <v>-0.04199066003180829</v>
       </c>
       <c r="C17">
-        <v>0.2099285992078171</v>
+        <v>0.2099285991866486</v>
       </c>
       <c r="D17">
-        <v>0.04200000000012451</v>
+        <v>0.04199999999884024</v>
       </c>
       <c r="E17">
-        <v>-0.2099276368048879</v>
+        <v>-0.2099276367837196</v>
       </c>
       <c r="F17">
-        <v>9.339967033783481e-06</v>
+        <v>9.339967031951613e-06</v>
       </c>
       <c r="G17">
-        <v>9.624029291555036e-07</v>
+        <v>9.624029289612146e-07</v>
       </c>
       <c r="H17">
-        <v>0.01123609773539381</v>
+        <v>0.01123609773429119</v>
       </c>
       <c r="I17">
-        <v>0.01123609773539381</v>
+        <v>0.01123609773429119</v>
       </c>
       <c r="J17">
-        <v>0.01123609773539381</v>
+        <v>0.01123609773429119</v>
       </c>
       <c r="K17">
         <v>1.00004932794153</v>
       </c>
       <c r="L17">
-        <v>0.2071044903199248</v>
+        <v>0.2108100515186774</v>
       </c>
       <c r="M17">
         <v>1.0000534779554</v>
       </c>
       <c r="N17">
-        <v>0.2096060876888936</v>
+        <v>0.2133116488873963</v>
       </c>
       <c r="O17">
-        <v>1.123609773539381</v>
+        <v>1.123609773429119</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.03624389787016299</v>
+        <v>-0.03624389787017451</v>
       </c>
       <c r="C18">
-        <v>5.314477961742498</v>
+        <v>5.31447796174886</v>
       </c>
       <c r="D18">
-        <v>0.04200000000055176</v>
+        <v>0.04200000000057716</v>
       </c>
       <c r="E18">
-        <v>-5.313884845136118</v>
+        <v>-5.31388484514248</v>
       </c>
       <c r="F18">
-        <v>0.005756102130388768</v>
+        <v>0.005756102130402646</v>
       </c>
       <c r="G18">
         <v>0.0005931166063799509</v>
       </c>
       <c r="H18">
-        <v>0.2789376142166596</v>
+        <v>0.2789376142169934</v>
       </c>
       <c r="I18">
-        <v>0.2789376142166595</v>
+        <v>0.2789376142169935</v>
       </c>
       <c r="J18">
-        <v>0.2789376142166596</v>
+        <v>0.2789376142169935</v>
       </c>
       <c r="K18">
         <v>1.00002375201704</v>
       </c>
       <c r="L18">
-        <v>0.2104373435114723</v>
+        <v>0.2141429047102356</v>
       </c>
       <c r="M18">
         <v>0.99992012441745</v>
       </c>
       <c r="N18">
-        <v>0.2725414743690522</v>
+        <v>0.2762470355678908</v>
       </c>
       <c r="O18">
-        <v>27.89376142166596</v>
+        <v>27.89376142169935</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-6.559201789842593</v>
+        <v>-6.500172348932934</v>
       </c>
       <c r="C19">
-        <v>22.87722613067794</v>
+        <v>25.68379770403268</v>
       </c>
       <c r="D19">
-        <v>6.806918794315862</v>
+        <v>6.806918794317235</v>
       </c>
       <c r="E19">
-        <v>-22.80020645002758</v>
+        <v>-25.58842470646892</v>
       </c>
       <c r="F19">
-        <v>0.2477170044732686</v>
+        <v>0.3067464453843005</v>
       </c>
       <c r="G19">
-        <v>0.07701968065035913</v>
+        <v>0.09537299756376072</v>
       </c>
       <c r="H19">
-        <v>1.248893237453575</v>
+        <v>1.3897515706718</v>
       </c>
       <c r="I19">
-        <v>1.248893237453575</v>
+        <v>1.3897515706718</v>
       </c>
       <c r="J19">
-        <v>1.248893237453575</v>
+        <v>1.3897515706718</v>
       </c>
       <c r="K19">
-        <v>1.000182826744022</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="L19">
-        <v>0.1759337841945885</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0.8004434841176232</v>
+        <v>0.831787560552785</v>
       </c>
       <c r="O19">
-        <v>124.8893237453575</v>
+        <v>92.65010471145332</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-4.539985798443809</v>
+        <v>-4.539985798444082</v>
       </c>
       <c r="C20">
-        <v>16.51965073576792</v>
+        <v>16.51965073576901</v>
       </c>
       <c r="D20">
-        <v>4.668402632730156</v>
+        <v>4.668402632730445</v>
       </c>
       <c r="E20">
-        <v>-16.47972362786551</v>
+        <v>-16.4797236278666</v>
       </c>
       <c r="F20">
-        <v>0.1284168342863463</v>
+        <v>0.1284168342863632</v>
       </c>
       <c r="G20">
-        <v>0.03992710790240395</v>
+        <v>0.03992710790241105</v>
       </c>
       <c r="H20">
-        <v>0.8992043184315957</v>
+        <v>0.8992043184316546</v>
       </c>
       <c r="I20">
-        <v>0.8992043184315955</v>
+        <v>0.8992043184316545</v>
       </c>
       <c r="J20">
-        <v>0.8992043184315957</v>
+        <v>0.8992043184316546</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.8004434841176232</v>
+        <v>0.831787560552785</v>
       </c>
       <c r="M20">
         <v>0.999769900723529</v>
       </c>
       <c r="N20">
-        <v>1.250052794044847</v>
+        <v>1.281396870480037</v>
       </c>
       <c r="O20">
-        <v>89.92043184315956</v>
+        <v>89.92043184316546</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-2.266932995871979</v>
+        <v>-2.266932995872164</v>
       </c>
       <c r="C21">
-        <v>8.981667874954562</v>
+        <v>8.981667874955084</v>
       </c>
       <c r="D21">
-        <v>2.304476356365186</v>
+        <v>2.304476356365376</v>
       </c>
       <c r="E21">
-        <v>-8.969994967630834</v>
+        <v>-8.969994967631354</v>
       </c>
       <c r="F21">
-        <v>0.03754336049320717</v>
+        <v>0.03754336049321161</v>
       </c>
       <c r="G21">
-        <v>0.01167290732372805</v>
+        <v>0.01167290732372983</v>
       </c>
       <c r="H21">
-        <v>0.4861989044836616</v>
+        <v>0.4861989044836906</v>
       </c>
       <c r="I21">
-        <v>0.4861989044836617</v>
+        <v>0.4861989044836906</v>
       </c>
       <c r="J21">
-        <v>0.4861989044836617</v>
+        <v>0.4861989044836906</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.8004434841176232</v>
+        <v>0.831787560552785</v>
       </c>
       <c r="M21">
         <v>0.999779008807556</v>
       </c>
       <c r="N21">
-        <v>1.043319867573287</v>
+        <v>1.074663944008463</v>
       </c>
       <c r="O21">
-        <v>48.61989044836616</v>
+        <v>48.61989044836906</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.331597367269399</v>
+        <v>2.331597367269496</v>
       </c>
       <c r="C22">
-        <v>-7.51818361608048</v>
+        <v>-7.518183616081046</v>
       </c>
       <c r="D22">
-        <v>-2.304476356365762</v>
+        <v>-2.304476356365854</v>
       </c>
       <c r="E22">
-        <v>7.526616027101899</v>
+        <v>7.526616027102467</v>
       </c>
       <c r="F22">
-        <v>0.02712101090363728</v>
+        <v>0.02712101090364172</v>
       </c>
       <c r="G22">
-        <v>0.008432411021419561</v>
+        <v>0.00843241102142045</v>
       </c>
       <c r="H22">
-        <v>0.4132380854883289</v>
+        <v>0.4132380854883588</v>
       </c>
       <c r="I22">
-        <v>0.4132380854883289</v>
+        <v>0.4132380854883588</v>
       </c>
       <c r="J22">
-        <v>0.4132380854883289</v>
+        <v>0.4132380854883588</v>
       </c>
       <c r="K22">
         <v>0.999769900723529</v>
       </c>
       <c r="L22">
-        <v>1.250052794044847</v>
+        <v>1.281396870480037</v>
       </c>
       <c r="M22">
         <v>0.999779008807556</v>
       </c>
       <c r="N22">
-        <v>1.043319867573287</v>
+        <v>1.074663944008463</v>
       </c>
       <c r="O22">
-        <v>41.32380854883289</v>
+        <v>41.32380854883588</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-5.956667711934153</v>
+        <v>-5.935469050672762</v>
       </c>
       <c r="C23">
-        <v>12.90637632679899</v>
+        <v>18.46821875116892</v>
       </c>
       <c r="D23">
-        <v>5.981291224365167</v>
+        <v>5.981291224359413</v>
       </c>
       <c r="E23">
-        <v>-12.89211902765498</v>
+        <v>-18.44168718141381</v>
       </c>
       <c r="F23">
-        <v>0.02462351243101413</v>
+        <v>0.04582217368665109</v>
       </c>
       <c r="G23">
-        <v>0.01425729914401153</v>
+        <v>0.02653156975511095</v>
       </c>
       <c r="H23">
-        <v>0.7459395645611393</v>
+        <v>1.017575131491841</v>
       </c>
       <c r="I23">
-        <v>0.7459395645611393</v>
+        <v>1.017575131491841</v>
       </c>
       <c r="J23">
-        <v>0.7459395645611393</v>
+        <v>1.017575131491841</v>
       </c>
       <c r="K23">
-        <v>1.000182826744022</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="L23">
-        <v>0.1759337841945885</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <v>0.2901531174317262</v>
+        <v>0.2905789391187074</v>
       </c>
       <c r="O23">
-        <v>74.59395645611393</v>
+        <v>101.7575131491841</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-5.981291224366091</v>
+        <v>-5.981291224363484</v>
       </c>
       <c r="C24">
-        <v>14.60677528274542</v>
+        <v>14.60677528274026</v>
       </c>
       <c r="D24">
-        <v>6.011662890767581</v>
+        <v>6.011662890764954</v>
       </c>
       <c r="E24">
-        <v>-14.5891897358174</v>
+        <v>-14.58918973581226</v>
       </c>
       <c r="F24">
-        <v>0.03037166640149014</v>
+        <v>0.03037166640146971</v>
       </c>
       <c r="G24">
-        <v>0.0175855469280144</v>
+        <v>0.01758554692800018</v>
       </c>
       <c r="H24">
-        <v>0.8284436084113597</v>
+        <v>0.8284436084110574</v>
       </c>
       <c r="I24">
-        <v>0.8284436084113598</v>
+        <v>0.8284436084110577</v>
       </c>
       <c r="J24">
-        <v>0.8284436084113598</v>
+        <v>0.8284436084110577</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.2901531174317262</v>
+        <v>0.2905789391187074</v>
       </c>
       <c r="M24">
         <v>0.9997005556993189</v>
       </c>
       <c r="N24">
-        <v>0.4164078277486218</v>
+        <v>0.4168336494355581</v>
       </c>
       <c r="O24">
-        <v>82.84436084113598</v>
+        <v>82.84436084110577</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1549,46 +1549,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-5.611662890764292</v>
+        <v>-5.611662890763796</v>
       </c>
       <c r="C25">
-        <v>10.80078073485998</v>
+        <v>10.80078073485826</v>
       </c>
       <c r="D25">
-        <v>5.62973425414715</v>
+        <v>5.629734254146649</v>
       </c>
       <c r="E25">
-        <v>-10.79031720597021</v>
+        <v>-10.79031720596849</v>
       </c>
       <c r="F25">
-        <v>0.01807136338285709</v>
+        <v>0.01807136338285265</v>
       </c>
       <c r="G25">
-        <v>0.01046352888976898</v>
+        <v>0.01046352888976543</v>
       </c>
       <c r="H25">
-        <v>0.6390341986858443</v>
+        <v>0.6390341986857522</v>
       </c>
       <c r="I25">
-        <v>0.6390341986858442</v>
+        <v>0.6390341986857522</v>
       </c>
       <c r="J25">
-        <v>0.6390341986858443</v>
+        <v>0.6390341986857522</v>
       </c>
       <c r="K25">
         <v>0.9997005556993189</v>
       </c>
       <c r="L25">
-        <v>0.4164078277486218</v>
+        <v>0.4168336494355581</v>
       </c>
       <c r="M25">
         <v>0.9996237209868073</v>
       </c>
       <c r="N25">
-        <v>0.51461172695614</v>
+        <v>0.5150375486430605</v>
       </c>
       <c r="O25">
-        <v>63.90341986858444</v>
+        <v>63.90341986857522</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1596,46 +1596,46 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-3.82518341423396</v>
+        <v>-3.825183414232873</v>
       </c>
       <c r="C26">
-        <v>-2.943739819845812</v>
+        <v>-2.943739819848692</v>
       </c>
       <c r="D26">
-        <v>3.828025746022653</v>
+        <v>3.828025746021567</v>
       </c>
       <c r="E26">
-        <v>2.94538556290101</v>
+        <v>2.945385562903891</v>
       </c>
       <c r="F26">
-        <v>0.002842331788692753</v>
+        <v>0.002842331788693642</v>
       </c>
       <c r="G26">
-        <v>0.001645743055197713</v>
+        <v>0.001645743055198601</v>
       </c>
       <c r="H26">
-        <v>0.2534346705418801</v>
+        <v>0.253434670541927</v>
       </c>
       <c r="I26">
-        <v>0.2534346705418801</v>
+        <v>0.2534346705419271</v>
       </c>
       <c r="J26">
-        <v>0.2534346705418801</v>
+        <v>0.2534346705419271</v>
       </c>
       <c r="K26">
         <v>0.9996237209868073</v>
       </c>
       <c r="L26">
-        <v>0.51461172695614</v>
+        <v>0.5150375486430605</v>
       </c>
       <c r="M26">
         <v>1.000298092425485</v>
       </c>
       <c r="N26">
-        <v>0.5095199521239345</v>
+        <v>0.5099457738108349</v>
       </c>
       <c r="O26">
-        <v>25.34346705418801</v>
+        <v>25.34346705419271</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1643,46 +1643,46 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-3.428025746025205</v>
+        <v>-3.428025746023945</v>
       </c>
       <c r="C27">
-        <v>6.480484580568974</v>
+        <v>6.480484580567661</v>
       </c>
       <c r="D27">
-        <v>3.434574216150648</v>
+        <v>3.434574216149385</v>
       </c>
       <c r="E27">
-        <v>-6.476692940453632</v>
+        <v>-6.476692940452321</v>
       </c>
       <c r="F27">
-        <v>0.006548470125443018</v>
+        <v>0.006548470125439909</v>
       </c>
       <c r="G27">
-        <v>0.003791640115341721</v>
+        <v>0.003791640115339945</v>
       </c>
       <c r="H27">
-        <v>0.3846790779694491</v>
+        <v>0.3846790779693574</v>
       </c>
       <c r="I27">
-        <v>0.3846790779694492</v>
+        <v>0.3846790779693574</v>
       </c>
       <c r="J27">
-        <v>0.3846790779694492</v>
+        <v>0.3846790779693574</v>
       </c>
       <c r="K27">
         <v>1.000298092425485</v>
       </c>
       <c r="L27">
-        <v>0.5095199521239345</v>
+        <v>0.5099457738108349</v>
       </c>
       <c r="M27">
         <v>1.000259107248877</v>
       </c>
       <c r="N27">
-        <v>0.5686164614326106</v>
+        <v>0.5690422831194921</v>
       </c>
       <c r="O27">
-        <v>38.46790779694491</v>
+        <v>38.46790779693573</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1690,46 +1690,46 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.318502896600123</v>
+        <v>-2.318502896599715</v>
       </c>
       <c r="C28">
-        <v>3.251698579351708</v>
+        <v>3.251698579355373</v>
       </c>
       <c r="D28">
-        <v>2.320446217422166</v>
+        <v>2.320446217421761</v>
       </c>
       <c r="E28">
-        <v>-3.250573374067926</v>
+        <v>-3.250573374071589</v>
       </c>
       <c r="F28">
-        <v>0.00194332082204296</v>
+        <v>0.001943320822046068</v>
       </c>
       <c r="G28">
-        <v>0.001125205283782016</v>
+        <v>0.001125205283783792</v>
       </c>
       <c r="H28">
-        <v>0.2095563826835277</v>
+        <v>0.2095563826836719</v>
       </c>
       <c r="I28">
-        <v>0.2095563826835277</v>
+        <v>0.2095563826836719</v>
       </c>
       <c r="J28">
-        <v>0.2095563826835277</v>
+        <v>0.2095563826836719</v>
       </c>
       <c r="K28">
         <v>1.000259107248877</v>
       </c>
       <c r="L28">
-        <v>0.5686164614326106</v>
+        <v>0.5690422831194921</v>
       </c>
       <c r="M28">
         <v>1.000312369854601</v>
       </c>
       <c r="N28">
-        <v>0.600687623067515</v>
+        <v>0.6011134447544257</v>
       </c>
       <c r="O28">
-        <v>20.95563826835278</v>
+        <v>20.95563826836719</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1737,46 +1737,46 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.920446217417767</v>
+        <v>-1.920446217422103</v>
       </c>
       <c r="C29">
-        <v>-0.790739067495255</v>
+        <v>-0.7907390674913509</v>
       </c>
       <c r="D29">
-        <v>1.920971729530092</v>
+        <v>1.920971729534428</v>
       </c>
       <c r="E29">
-        <v>0.7910433451002556</v>
+        <v>0.7910433450963519</v>
       </c>
       <c r="F29">
-        <v>0.0005255121123242112</v>
+        <v>0.0005255121123253215</v>
       </c>
       <c r="G29">
-        <v>0.0003042776050006246</v>
+        <v>0.0003042776050009577</v>
       </c>
       <c r="H29">
-        <v>0.1089732758199311</v>
+        <v>0.1089732758200634</v>
       </c>
       <c r="I29">
-        <v>0.1089732758199311</v>
+        <v>0.1089732758200635</v>
       </c>
       <c r="J29">
-        <v>0.1089732758199311</v>
+        <v>0.1089732758200635</v>
       </c>
       <c r="K29">
         <v>1.000312369854601</v>
       </c>
       <c r="L29">
-        <v>0.600687623067515</v>
+        <v>0.6011134447544257</v>
       </c>
       <c r="M29">
         <v>1.000602215656172</v>
       </c>
       <c r="N29">
-        <v>0.6029292653296888</v>
+        <v>0.6033550870166391</v>
       </c>
       <c r="O29">
-        <v>10.89732758199311</v>
+        <v>10.89732758200635</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1784,46 +1784,46 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.520971729532135</v>
+        <v>-1.520971729533373</v>
       </c>
       <c r="C30">
-        <v>17.60724068697877</v>
+        <v>17.60724068698259</v>
       </c>
       <c r="D30">
-        <v>1.559001568044391</v>
+        <v>1.559001568045647</v>
       </c>
       <c r="E30">
-        <v>-17.58522096962176</v>
+        <v>-17.58522096962558</v>
       </c>
       <c r="F30">
-        <v>0.03802983851225594</v>
+        <v>0.03802983851227371</v>
       </c>
       <c r="G30">
-        <v>0.02201971735700781</v>
+        <v>0.02201971735701136</v>
       </c>
       <c r="H30">
-        <v>0.9270237948531381</v>
+        <v>0.9270237948533437</v>
       </c>
       <c r="I30">
-        <v>0.9270237948531382</v>
+        <v>0.927023794853344</v>
       </c>
       <c r="J30">
-        <v>0.9270237948531382</v>
+        <v>0.927023794853344</v>
       </c>
       <c r="K30">
         <v>1.000602215656172</v>
       </c>
       <c r="L30">
-        <v>0.6029292653296888</v>
+        <v>0.6033550870166391</v>
       </c>
       <c r="M30">
         <v>0.9995479719766737</v>
       </c>
       <c r="N30">
-        <v>0.7320457209905529</v>
+        <v>0.7324715426775374</v>
       </c>
       <c r="O30">
-        <v>92.70237948531383</v>
+        <v>92.70237948533439</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1831,46 +1831,46 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.6634579455034652</v>
+        <v>-0.6634579455041137</v>
       </c>
       <c r="C31">
-        <v>-5.603036586220256</v>
+        <v>-5.60303658621847</v>
       </c>
       <c r="D31">
-        <v>0.6673423342398295</v>
+        <v>0.6673423342404757</v>
       </c>
       <c r="E31">
-        <v>5.605285692328133</v>
+        <v>5.605285692326345</v>
       </c>
       <c r="F31">
-        <v>0.003884388736364319</v>
+        <v>0.003884388736361988</v>
       </c>
       <c r="G31">
-        <v>0.002249106107877097</v>
+        <v>0.002249106107875321</v>
       </c>
       <c r="H31">
-        <v>0.2962715736101869</v>
+        <v>0.2962715736100978</v>
       </c>
       <c r="I31">
-        <v>0.2962715736101869</v>
+        <v>0.2962715736100977</v>
       </c>
       <c r="J31">
-        <v>0.2962715736101869</v>
+        <v>0.2962715736100978</v>
       </c>
       <c r="K31">
         <v>0.9995479719766737</v>
       </c>
       <c r="L31">
-        <v>0.7320457209905529</v>
+        <v>0.7324715426775374</v>
       </c>
       <c r="M31">
         <v>1.000024771832484</v>
       </c>
       <c r="N31">
-        <v>0.6955768577506038</v>
+        <v>0.6960026794376041</v>
       </c>
       <c r="O31">
-        <v>29.62715736101869</v>
+        <v>29.62715736100978</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1878,46 +1878,46 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.404550839910297</v>
+        <v>-1.404550839909205</v>
       </c>
       <c r="C32">
-        <v>5.688440523463581</v>
+        <v>5.688440523458656</v>
       </c>
       <c r="D32">
-        <v>1.415800901766309</v>
+        <v>1.415800901765198</v>
       </c>
       <c r="E32">
-        <v>-5.685706163006414</v>
+        <v>-5.685706163001495</v>
       </c>
       <c r="F32">
-        <v>0.01125006185601229</v>
+        <v>0.01125006185599275</v>
       </c>
       <c r="G32">
-        <v>0.002734360457166574</v>
+        <v>0.002734360457161245</v>
       </c>
       <c r="H32">
-        <v>0.3076480109170278</v>
+        <v>0.307648010916763</v>
       </c>
       <c r="I32">
-        <v>0.3076480109170278</v>
+        <v>0.307648010916763</v>
       </c>
       <c r="J32">
-        <v>0.3076480109170278</v>
+        <v>0.307648010916763</v>
       </c>
       <c r="K32">
         <v>0.9996237209868073</v>
       </c>
       <c r="L32">
-        <v>0.51461172695614</v>
+        <v>0.5150375486430605</v>
       </c>
       <c r="M32">
         <v>0.9996328653931441</v>
       </c>
       <c r="N32">
-        <v>0.6278231624494865</v>
+        <v>0.6282489841363084</v>
       </c>
       <c r="O32">
-        <v>30.76480109170278</v>
+        <v>30.7648010916763</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1925,46 +1925,46 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.364440013237553</v>
+        <v>-0.3644400132368221</v>
       </c>
       <c r="C33">
-        <v>2.257636421361112</v>
+        <v>2.257636421358784</v>
       </c>
       <c r="D33">
-        <v>0.3661537298350098</v>
+        <v>0.3661537298342754</v>
       </c>
       <c r="E33">
-        <v>-2.257219897526945</v>
+        <v>-2.257219897524618</v>
       </c>
       <c r="F33">
-        <v>0.001713716597456838</v>
+        <v>0.00171371659745323</v>
       </c>
       <c r="G33">
-        <v>0.0004165238341662381</v>
+        <v>0.0004165238341653499</v>
       </c>
       <c r="H33">
-        <v>0.1200732201571575</v>
+        <v>0.1200732201570308</v>
       </c>
       <c r="I33">
-        <v>0.1200732201571576</v>
+        <v>0.1200732201570308</v>
       </c>
       <c r="J33">
-        <v>0.1200732201571576</v>
+        <v>0.1200732201570308</v>
       </c>
       <c r="K33">
         <v>0.9996328653931441</v>
       </c>
       <c r="L33">
-        <v>0.6278231624494865</v>
+        <v>0.6282489841363084</v>
       </c>
       <c r="M33">
         <v>0.999572795205926</v>
       </c>
       <c r="N33">
-        <v>0.6718761658551434</v>
+        <v>0.6723019875419181</v>
       </c>
       <c r="O33">
-        <v>12.00732201571576</v>
+        <v>12.00732201570308</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1972,46 +1972,46 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.3994223510883257</v>
+        <v>-0.3994223510882693</v>
       </c>
       <c r="C34">
-        <v>0.9973733723507986</v>
+        <v>0.9973733723494222</v>
       </c>
       <c r="D34">
-        <v>0.4000000000004854</v>
+        <v>0.4000000000004276</v>
       </c>
       <c r="E34">
-        <v>-0.9972776178849211</v>
+        <v>-0.997277617883545</v>
       </c>
       <c r="F34">
-        <v>0.0005776489121597228</v>
+        <v>0.000577648912158335</v>
       </c>
       <c r="G34">
-        <v>9.575446587750669e-05</v>
+        <v>9.575446587728464e-05</v>
       </c>
       <c r="H34">
-        <v>0.05641441331575756</v>
+        <v>0.05641441331568937</v>
       </c>
       <c r="I34">
-        <v>0.05641441331575757</v>
+        <v>0.05641441331568937</v>
       </c>
       <c r="J34">
-        <v>0.05641441331575757</v>
+        <v>0.05641441331568937</v>
       </c>
       <c r="K34">
         <v>0.999572795205926</v>
       </c>
       <c r="L34">
-        <v>0.6718761658551434</v>
+        <v>0.6723019875419181</v>
       </c>
       <c r="M34">
         <v>0.9996900346867544</v>
       </c>
       <c r="N34">
-        <v>0.7023685810105719</v>
+        <v>0.7027944026973075</v>
       </c>
       <c r="O34">
-        <v>5.641441331575757</v>
+        <v>5.641441331568937</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2019,46 +2019,46 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.03326862125333439</v>
+        <v>0.03326862125349522</v>
       </c>
       <c r="C35">
-        <v>-8.153416398052983</v>
+        <v>-8.153416398053253</v>
       </c>
       <c r="D35">
-        <v>3.447658825095345e-13</v>
+        <v>1.862607290625817e-13</v>
       </c>
       <c r="E35">
-        <v>8.158931199503423</v>
+        <v>8.158931199503693</v>
       </c>
       <c r="F35">
-        <v>0.03326862125367915</v>
+        <v>0.03326862125368148</v>
       </c>
       <c r="G35">
         <v>0.005514801450440032</v>
       </c>
       <c r="H35">
-        <v>0.428129839013183</v>
+        <v>0.4281298390131971</v>
       </c>
       <c r="I35">
-        <v>0.428129839013183</v>
+        <v>0.4281298390131972</v>
       </c>
       <c r="J35">
-        <v>0.428129839013183</v>
+        <v>0.4281298390131972</v>
       </c>
       <c r="K35">
         <v>0.999572795205926</v>
       </c>
       <c r="L35">
-        <v>0.6718761658551434</v>
+        <v>0.6723019875419181</v>
       </c>
       <c r="M35">
         <v>1.000240558966567</v>
       </c>
       <c r="N35">
-        <v>0.4380918334302486</v>
+        <v>0.4385176551170139</v>
       </c>
       <c r="O35">
-        <v>42.8129839013183</v>
+        <v>42.81298390131972</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2066,46 +2066,46 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.6513608885281165</v>
+        <v>-0.6513608885275266</v>
       </c>
       <c r="C36">
-        <v>-9.837729918411409</v>
+        <v>-9.837729918413366</v>
       </c>
       <c r="D36">
-        <v>0.7000000000004172</v>
+        <v>0.6999999999998459</v>
       </c>
       <c r="E36">
-        <v>9.845792622316397</v>
+        <v>9.845792622318358</v>
       </c>
       <c r="F36">
-        <v>0.04863911147230071</v>
+        <v>0.04863911147231925</v>
       </c>
       <c r="G36">
-        <v>0.008062703904988311</v>
+        <v>0.008062703904991864</v>
       </c>
       <c r="H36">
-        <v>0.5176675147534712</v>
+        <v>0.5176675147535718</v>
       </c>
       <c r="I36">
-        <v>0.5176675147534711</v>
+        <v>0.5176675147535716</v>
       </c>
       <c r="J36">
-        <v>0.5176675147534712</v>
+        <v>0.5176675147535718</v>
       </c>
       <c r="K36">
         <v>0.9996328653931441</v>
       </c>
       <c r="L36">
-        <v>0.6278231624494865</v>
+        <v>0.6282489841363084</v>
       </c>
       <c r="M36">
         <v>1.000786197009713</v>
       </c>
       <c r="N36">
-        <v>0.3491971456160359</v>
+        <v>0.3496229673028013</v>
       </c>
       <c r="O36">
-        <v>51.76675147534711</v>
+        <v>51.76675147535718</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2113,46 +2113,46 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.7160713195512455</v>
+        <v>-0.7160713195514102</v>
       </c>
       <c r="C37">
-        <v>1.065974707233649</v>
+        <v>1.065974707232068</v>
       </c>
       <c r="D37">
-        <v>0.7166110184684797</v>
+        <v>0.7166110184686434</v>
       </c>
       <c r="E37">
-        <v>-1.065843531832398</v>
+        <v>-1.065843531830817</v>
       </c>
       <c r="F37">
-        <v>0.0005396989172342659</v>
+        <v>0.0005396989172331557</v>
       </c>
       <c r="G37">
-        <v>0.0001311754012509603</v>
+        <v>0.0001311754012507382</v>
       </c>
       <c r="H37">
-        <v>0.06738332383677031</v>
+        <v>0.06738332383670627</v>
       </c>
       <c r="I37">
-        <v>0.0673833238367703</v>
+        <v>0.06738332383670627</v>
       </c>
       <c r="J37">
-        <v>0.06738332383677031</v>
+        <v>0.06738332383670627</v>
       </c>
       <c r="K37">
         <v>1.000259107248877</v>
       </c>
       <c r="L37">
-        <v>0.5686164614326106</v>
+        <v>0.5690422831194921</v>
       </c>
       <c r="M37">
         <v>1.000408788243711</v>
       </c>
       <c r="N37">
-        <v>0.5918652678554963</v>
+        <v>0.592291089542346</v>
       </c>
       <c r="O37">
-        <v>6.738332383677031</v>
+        <v>6.738332383670627</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2160,46 +2160,46 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.009726833713642762</v>
+        <v>0.00972683371379361</v>
       </c>
       <c r="C38">
-        <v>-0.8786425417151433</v>
+        <v>-0.8786425417165107</v>
       </c>
       <c r="D38">
-        <v>-0.009474216616770349</v>
+        <v>-0.009474216616920364</v>
       </c>
       <c r="E38">
-        <v>0.8787039410398169</v>
+        <v>0.8787039410411843</v>
       </c>
       <c r="F38">
-        <v>0.000252617096872413</v>
+        <v>0.0002526170968732457</v>
       </c>
       <c r="G38">
-        <v>6.139932467352782e-05</v>
+        <v>6.139932467363884e-05</v>
       </c>
       <c r="H38">
-        <v>0.04610075375927034</v>
+        <v>0.04610075375934217</v>
       </c>
       <c r="I38">
-        <v>0.04610075375927035</v>
+        <v>0.04610075375934217</v>
       </c>
       <c r="J38">
-        <v>0.04610075375927035</v>
+        <v>0.04610075375934217</v>
       </c>
       <c r="K38">
         <v>1.000408788243711</v>
       </c>
       <c r="L38">
-        <v>0.5918652678554963</v>
+        <v>0.592291089542346</v>
       </c>
       <c r="M38">
         <v>1.000475545840635</v>
       </c>
       <c r="N38">
-        <v>0.575351053230723</v>
+        <v>0.5757768749175435</v>
       </c>
       <c r="O38">
-        <v>4.610075375927035</v>
+        <v>4.610075375934216</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2207,46 +2207,46 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.3263378521830079</v>
+        <v>-0.3263378521824206</v>
       </c>
       <c r="C39">
-        <v>12.13819738167589</v>
+        <v>12.13819738167494</v>
       </c>
       <c r="D39">
-        <v>0.4000000000002332</v>
+        <v>0.3999999999996343</v>
       </c>
       <c r="E39">
-        <v>-12.12598671275373</v>
+        <v>-12.12598671275279</v>
       </c>
       <c r="F39">
-        <v>0.07366214781722524</v>
+        <v>0.0736621478172137</v>
       </c>
       <c r="G39">
-        <v>0.01221066892215106</v>
+        <v>0.01221066892214928</v>
       </c>
       <c r="H39">
-        <v>0.6370599233210805</v>
+        <v>0.6370599233210299</v>
       </c>
       <c r="I39">
-        <v>0.6370599233210806</v>
+        <v>0.6370599233210297</v>
       </c>
       <c r="J39">
-        <v>0.6370599233210806</v>
+        <v>0.6370599233210299</v>
       </c>
       <c r="K39">
         <v>1.000408788243711</v>
       </c>
       <c r="L39">
-        <v>0.5918652678554963</v>
+        <v>0.592291089542346</v>
       </c>
       <c r="M39">
         <v>0.9995848131452152</v>
       </c>
       <c r="N39">
-        <v>0.9411589663027229</v>
+        <v>0.9415847879895435</v>
       </c>
       <c r="O39">
-        <v>63.70599233210806</v>
+        <v>63.70599233210299</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2254,46 +2254,46 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.009474216616660647</v>
+        <v>0.009474216616474469</v>
       </c>
       <c r="C40">
-        <v>4.355003555059368</v>
+        <v>4.355003555058634</v>
       </c>
       <c r="D40">
-        <v>-1.210004318963342e-13</v>
+        <v>6.204758928873844e-14</v>
       </c>
       <c r="E40">
-        <v>-4.353433053440432</v>
+        <v>-4.353433053439698</v>
       </c>
       <c r="F40">
-        <v>0.009474216616539646</v>
+        <v>0.009474216616536517</v>
       </c>
       <c r="G40">
-        <v>0.001570501618936682</v>
+        <v>0.001570501618935793</v>
       </c>
       <c r="H40">
-        <v>0.2284702995991673</v>
+        <v>0.2284702995991288</v>
       </c>
       <c r="I40">
-        <v>0.2284702995991673</v>
+        <v>0.2284702995991288</v>
       </c>
       <c r="J40">
-        <v>0.2284702995991673</v>
+        <v>0.2284702995991288</v>
       </c>
       <c r="K40">
         <v>1.000475545840635</v>
       </c>
       <c r="L40">
-        <v>0.575351053230723</v>
+        <v>0.5757768749175435</v>
       </c>
       <c r="M40">
         <v>1.00011238767836</v>
       </c>
       <c r="N40">
-        <v>0.6999965932639486</v>
+        <v>0.70042241495075</v>
       </c>
       <c r="O40">
-        <v>22.84702995991673</v>
+        <v>22.84702995991288</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2301,46 +2301,46 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.495543622539575</v>
+        <v>-0.4955436225394997</v>
       </c>
       <c r="C41">
-        <v>2.94261591910965</v>
+        <v>2.94261591911004</v>
       </c>
       <c r="D41">
-        <v>0.4999999999999523</v>
+        <v>0.4999999999998783</v>
       </c>
       <c r="E41">
-        <v>-2.941877203889238</v>
+        <v>-2.941877203889628</v>
       </c>
       <c r="F41">
-        <v>0.004456377460377303</v>
+        <v>0.00445637746037858</v>
       </c>
       <c r="G41">
         <v>0.0007387152204119118</v>
       </c>
       <c r="H41">
-        <v>0.156692814226119</v>
+        <v>0.1566928142261385</v>
       </c>
       <c r="I41">
-        <v>0.156692814226119</v>
+        <v>0.1566928142261385</v>
       </c>
       <c r="J41">
-        <v>0.156692814226119</v>
+        <v>0.1566928142261385</v>
       </c>
       <c r="K41">
         <v>0.9995479719766737</v>
       </c>
       <c r="L41">
-        <v>0.7320457209905529</v>
+        <v>0.7324715426775374</v>
       </c>
       <c r="M41">
         <v>0.9995529982161122</v>
       </c>
       <c r="N41">
-        <v>0.8187781386554709</v>
+        <v>0.8192039603424677</v>
       </c>
       <c r="O41">
-        <v>15.6692814226119</v>
+        <v>15.66928142261385</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2348,46 +2348,46 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.2673423342415199</v>
+        <v>-0.2673423342419893</v>
       </c>
       <c r="C42">
-        <v>8.077500601434968</v>
+        <v>8.077500601434007</v>
       </c>
       <c r="D42">
-        <v>0.2999999999999085</v>
+        <v>0.3000000000003699</v>
       </c>
       <c r="E42">
-        <v>-8.072087075544639</v>
+        <v>-8.072087075543678</v>
       </c>
       <c r="F42">
-        <v>0.03265766575838863</v>
+        <v>0.03265766575838058</v>
       </c>
       <c r="G42">
         <v>0.005413525890329396</v>
       </c>
       <c r="H42">
-        <v>0.4241804671501834</v>
+        <v>0.4241804671501337</v>
       </c>
       <c r="I42">
-        <v>0.4241804671501834</v>
+        <v>0.4241804671501337</v>
       </c>
       <c r="J42">
-        <v>0.4241804671501834</v>
+        <v>0.4241804671501337</v>
       </c>
       <c r="K42">
         <v>1.000024771832484</v>
       </c>
       <c r="L42">
-        <v>0.6955768577506038</v>
+        <v>0.6960026794376041</v>
       </c>
       <c r="M42">
         <v>0.9994972100534636</v>
       </c>
       <c r="N42">
-        <v>0.9283655370658629</v>
+        <v>0.9287913587528356</v>
       </c>
       <c r="O42">
-        <v>42.41804671501833</v>
+        <v>42.41804671501338</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2395,46 +2395,46 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8691847869484775</v>
+        <v>0.6714392758084612</v>
       </c>
       <c r="C43">
-        <v>-51.70115361722371</v>
+        <v>-51.31841112891458</v>
       </c>
       <c r="D43">
-        <v>-0.7438934957750533</v>
+        <v>-0.5480099290399546</v>
       </c>
       <c r="E43">
-        <v>51.76550074948067</v>
+        <v>51.38180200330435</v>
       </c>
       <c r="F43">
-        <v>0.1252912911734242</v>
+        <v>0.1234293467685066</v>
       </c>
       <c r="G43">
-        <v>0.06434713225696242</v>
+        <v>0.06339087438976776</v>
       </c>
       <c r="H43">
-        <v>2.713990265509987</v>
+        <v>2.693748579411924</v>
       </c>
       <c r="I43">
-        <v>2.713990265509987</v>
+        <v>2.693748579411924</v>
       </c>
       <c r="J43">
-        <v>2.713990265509987</v>
+        <v>2.693748579411924</v>
       </c>
       <c r="K43">
-        <v>0.9999999999999829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L43">
-        <v>0.1905815257180109</v>
+        <v>0.197406454793766</v>
       </c>
       <c r="M43">
-        <v>1.001206498394237</v>
+        <v>1.00120649839424</v>
       </c>
       <c r="N43">
-        <v>0.05074165958690437</v>
+        <v>0.05886530115692676</v>
       </c>
       <c r="O43">
-        <v>135.6995132754994</v>
+        <v>134.6874289705962</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2442,46 +2442,46 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.3938314881818938</v>
+        <v>0.3938314881977116</v>
       </c>
       <c r="C44">
-        <v>20.96509017919067</v>
+        <v>20.96509017918434</v>
       </c>
       <c r="D44">
-        <v>-0.3732774544173312</v>
+        <v>-0.3732774544331628</v>
       </c>
       <c r="E44">
-        <v>-20.95453403345479</v>
+        <v>-20.95453403344847</v>
       </c>
       <c r="F44">
-        <v>0.02055403376456266</v>
+        <v>0.02055403376454884</v>
       </c>
       <c r="G44">
-        <v>0.01055614573587604</v>
+        <v>0.01055614573586894</v>
       </c>
       <c r="H44">
-        <v>1.099249751218258</v>
+        <v>1.099249751217939</v>
       </c>
       <c r="I44">
-        <v>1.099249751218258</v>
+        <v>1.099249751217938</v>
       </c>
       <c r="J44">
-        <v>1.099249751218258</v>
+        <v>1.099249751217939</v>
       </c>
       <c r="K44">
-        <v>1.001206498394237</v>
+        <v>1.00120649839424</v>
       </c>
       <c r="L44">
-        <v>0.05074165958690437</v>
+        <v>0.05886530115692676</v>
       </c>
       <c r="M44">
-        <v>1.00068459744101</v>
+        <v>1.000684597441013</v>
       </c>
       <c r="N44">
-        <v>0.1063815134902337</v>
+        <v>0.114505155060212</v>
       </c>
       <c r="O44">
-        <v>54.96248756091292</v>
+        <v>54.96248756089693</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2489,46 +2489,46 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.3907774544159066</v>
+        <v>0.3907774544382745</v>
       </c>
       <c r="C45">
-        <v>35.97690197391402</v>
+        <v>35.97690197399923</v>
       </c>
       <c r="D45">
-        <v>-0.330201255364621</v>
+        <v>-0.3302012553867018</v>
       </c>
       <c r="E45">
-        <v>-35.94579123464818</v>
+        <v>-35.94579123473324</v>
       </c>
       <c r="F45">
-        <v>0.06057619905128558</v>
+        <v>0.06057619905157274</v>
       </c>
       <c r="G45">
-        <v>0.0311107392658414</v>
+        <v>0.03111073926599062</v>
       </c>
       <c r="H45">
-        <v>1.887117112568305</v>
+        <v>1.88711711257278</v>
       </c>
       <c r="I45">
-        <v>1.887117112568305</v>
+        <v>1.88711711257278</v>
       </c>
       <c r="J45">
-        <v>1.887117112568305</v>
+        <v>1.88711711257278</v>
       </c>
       <c r="K45">
-        <v>1.00068459744101</v>
+        <v>1.000684597441013</v>
       </c>
       <c r="L45">
-        <v>0.1063815134902337</v>
+        <v>0.114505155060212</v>
       </c>
       <c r="M45">
-        <v>0.9998024699881747</v>
+        <v>0.999802469988175</v>
       </c>
       <c r="N45">
-        <v>0.202388622219718</v>
+        <v>0.2105122637898938</v>
       </c>
       <c r="O45">
-        <v>94.35585562841527</v>
+        <v>94.35585562863901</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2536,46 +2536,46 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.3452012553821043</v>
+        <v>0.3452012553817703</v>
       </c>
       <c r="C46">
-        <v>17.30660770801708</v>
+        <v>17.30660770792825</v>
       </c>
       <c r="D46">
-        <v>-0.3311548264146524</v>
+        <v>-0.3311548264144629</v>
       </c>
       <c r="E46">
-        <v>-17.29939373955973</v>
+        <v>-17.29939373947096</v>
       </c>
       <c r="F46">
-        <v>0.0140464289674519</v>
+        <v>0.01404642896730735</v>
       </c>
       <c r="G46">
-        <v>0.007213968457353559</v>
+        <v>0.00721396845728961</v>
       </c>
       <c r="H46">
-        <v>0.9087215071890583</v>
+        <v>0.9087215071843954</v>
       </c>
       <c r="I46">
-        <v>0.9087215071890583</v>
+        <v>0.9087215071843953</v>
       </c>
       <c r="J46">
-        <v>0.9087215071890583</v>
+        <v>0.9087215071843954</v>
       </c>
       <c r="K46">
-        <v>0.9998024699881747</v>
+        <v>0.999802469988175</v>
       </c>
       <c r="L46">
-        <v>0.202388622219718</v>
+        <v>0.2105122637898938</v>
       </c>
       <c r="M46">
-        <v>0.9993700281922647</v>
+        <v>0.9993700281922667</v>
       </c>
       <c r="N46">
-        <v>0.2484163931765443</v>
+        <v>0.2565400347464802</v>
       </c>
       <c r="O46">
-        <v>45.43607535945291</v>
+        <v>45.43607535921977</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2583,46 +2583,46 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.3511548264178128</v>
+        <v>0.351154826426697</v>
       </c>
       <c r="C47">
-        <v>-61.24389257327667</v>
+        <v>-61.24389257307659</v>
       </c>
       <c r="D47">
-        <v>-0.1751660803095154</v>
+        <v>-0.1751660803195484</v>
       </c>
       <c r="E47">
-        <v>61.334276916957</v>
+        <v>61.33427691675633</v>
       </c>
       <c r="F47">
-        <v>0.1759887461082974</v>
+        <v>0.1759887461071486</v>
       </c>
       <c r="G47">
-        <v>0.09038434368032711</v>
+        <v>0.09038434367973736</v>
       </c>
       <c r="H47">
-        <v>3.216549888754846</v>
+        <v>3.216549888744334</v>
       </c>
       <c r="I47">
-        <v>3.216549888754847</v>
+        <v>3.216549888744334</v>
       </c>
       <c r="J47">
-        <v>3.216549888754847</v>
+        <v>3.216549888744334</v>
       </c>
       <c r="K47">
-        <v>0.9993700281922647</v>
+        <v>0.9993700281922667</v>
       </c>
       <c r="L47">
-        <v>0.2484163931765443</v>
+        <v>0.2565400347464802</v>
       </c>
       <c r="M47">
-        <v>1.000832538700583</v>
+        <v>1.00083253870058</v>
       </c>
       <c r="N47">
-        <v>0.08353449967094459</v>
+        <v>0.09165814124140363</v>
       </c>
       <c r="O47">
-        <v>160.8274944377424</v>
+        <v>160.8274944372167</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2630,46 +2630,46 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1951660803086739</v>
+        <v>0.195166080312884</v>
       </c>
       <c r="C48">
-        <v>67.42327842933869</v>
+        <v>67.42327842919846</v>
       </c>
       <c r="D48">
-        <v>0.01750000000743196</v>
+        <v>0.01750000000234497</v>
       </c>
       <c r="E48">
-        <v>-67.31405733129981</v>
+        <v>-67.31405733116003</v>
       </c>
       <c r="F48">
-        <v>0.2126660803161059</v>
+        <v>0.2126660803152289</v>
       </c>
       <c r="G48">
-        <v>0.109221098038887</v>
+        <v>0.1092210980384323</v>
       </c>
       <c r="H48">
-        <v>3.535875431707748</v>
+        <v>3.535875431700405</v>
       </c>
       <c r="I48">
-        <v>3.535875431707748</v>
+        <v>3.535875431700405</v>
       </c>
       <c r="J48">
-        <v>3.535875431707748</v>
+        <v>3.535875431700405</v>
       </c>
       <c r="K48">
-        <v>1.000832538700583</v>
+        <v>1.00083253870058</v>
       </c>
       <c r="L48">
-        <v>0.08353449967094459</v>
+        <v>0.09165814124140363</v>
       </c>
       <c r="M48">
-        <v>0.9992071060924111</v>
+        <v>0.9992071060924113</v>
       </c>
       <c r="N48">
-        <v>0.2642801528001242</v>
+        <v>0.2724037943702069</v>
       </c>
       <c r="O48">
-        <v>176.7937715853874</v>
+        <v>176.7937715850203</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2677,46 +2677,46 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.3500620075326831</v>
+        <v>0.1541784408299957</v>
       </c>
       <c r="C49">
-        <v>51.28976886007899</v>
+        <v>51.67344316284451</v>
       </c>
       <c r="D49">
-        <v>-0.2270826887115605</v>
+        <v>-0.02935704432722491</v>
       </c>
       <c r="E49">
-        <v>-51.22660911115358</v>
+        <v>-51.60933735920851</v>
       </c>
       <c r="F49">
-        <v>0.1229793188211226</v>
+        <v>0.1248213965027708</v>
       </c>
       <c r="G49">
-        <v>0.06315974892541476</v>
+        <v>0.0641058036360036</v>
       </c>
       <c r="H49">
-        <v>2.688833341735937</v>
+        <v>2.708896186286234</v>
       </c>
       <c r="I49">
-        <v>2.688833341735937</v>
+        <v>2.708896186286234</v>
       </c>
       <c r="J49">
-        <v>2.688833341735937</v>
+        <v>2.708896186286234</v>
       </c>
       <c r="K49">
-        <v>1.001206498394237</v>
+        <v>1.00120649839424</v>
       </c>
       <c r="L49">
-        <v>0.05074165958690437</v>
+        <v>0.05886530115692676</v>
       </c>
       <c r="M49">
-        <v>0.9999601175541526</v>
+        <v>0.9999601175541516</v>
       </c>
       <c r="N49">
-        <v>0.1878046304213616</v>
+        <v>0.1972269706518597</v>
       </c>
       <c r="O49">
-        <v>134.4416670867969</v>
+        <v>135.4448093143117</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2724,46 +2724,46 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.2495826887018136</v>
+        <v>0.05185704433013252</v>
       </c>
       <c r="C50">
-        <v>-19.18093148809904</v>
+        <v>-18.79678146220892</v>
       </c>
       <c r="D50">
-        <v>-0.2323384016239494</v>
+        <v>-0.03529924478468406</v>
       </c>
       <c r="E50">
-        <v>19.18978781331434</v>
+        <v>18.80528522098782</v>
       </c>
       <c r="F50">
-        <v>0.01724428707786424</v>
+        <v>0.01655779954544846</v>
       </c>
       <c r="G50">
-        <v>0.008856325215301553</v>
+        <v>0.008503758778900306</v>
       </c>
       <c r="H50">
-        <v>1.006863193667434</v>
+        <v>0.986618270222826</v>
       </c>
       <c r="I50">
-        <v>1.006863193667434</v>
+        <v>0.9866182702228262</v>
       </c>
       <c r="J50">
-        <v>1.006863193667434</v>
+        <v>0.9866182702228262</v>
       </c>
       <c r="K50">
-        <v>0.9999601175541526</v>
+        <v>0.9999601175541516</v>
       </c>
       <c r="L50">
-        <v>0.1878046304213616</v>
+        <v>0.1972269706518597</v>
       </c>
       <c r="M50">
-        <v>1.000410459904277</v>
+        <v>1.00041045990427</v>
       </c>
       <c r="N50">
-        <v>0.1359817218617759</v>
+        <v>0.1467076067571122</v>
       </c>
       <c r="O50">
-        <v>50.34315968337169</v>
+        <v>49.33091351114131</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2771,46 +2771,46 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.2648384016386276</v>
+        <v>0.06779924478754995</v>
       </c>
       <c r="C51">
-        <v>11.96146197493016</v>
+        <v>12.34565413426045</v>
       </c>
       <c r="D51">
-        <v>-0.2581361208624117</v>
+        <v>-0.06066278947684596</v>
       </c>
       <c r="E51">
-        <v>-11.95801981591423</v>
+        <v>-12.3419889917799</v>
       </c>
       <c r="F51">
-        <v>0.00670228077621593</v>
+        <v>0.00713645531070399</v>
       </c>
       <c r="G51">
-        <v>0.003442159015934365</v>
+        <v>0.003665142480556938</v>
       </c>
       <c r="H51">
-        <v>0.6277101511646113</v>
+        <v>0.6477227013669864</v>
       </c>
       <c r="I51">
-        <v>0.6277101511646112</v>
+        <v>0.6477227013669863</v>
       </c>
       <c r="J51">
-        <v>0.6277101511646113</v>
+        <v>0.6477227013669864</v>
       </c>
       <c r="K51">
-        <v>1.000410459904277</v>
+        <v>1.00041045990427</v>
       </c>
       <c r="L51">
-        <v>0.1359817218617759</v>
+        <v>0.1467076067571122</v>
       </c>
       <c r="M51">
-        <v>1.000110460370637</v>
+        <v>1.000110460370631</v>
       </c>
       <c r="N51">
-        <v>0.1677147623858164</v>
+        <v>0.1797431626447225</v>
       </c>
       <c r="O51">
-        <v>31.38550755823056</v>
+        <v>32.38613506834932</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2818,46 +2818,46 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.2656361208640169</v>
+        <v>0.06816278949035562</v>
       </c>
       <c r="C52">
-        <v>20.46563141986342</v>
+        <v>20.85091800997677</v>
       </c>
       <c r="D52">
-        <v>-0.2488140903688709</v>
+        <v>-0.05070416749988503</v>
       </c>
       <c r="E52">
-        <v>-20.45699195728814</v>
+        <v>-20.84195160658414</v>
       </c>
       <c r="F52">
-        <v>0.01682203049514608</v>
+        <v>0.01745862199047059</v>
       </c>
       <c r="G52">
-        <v>0.008639462575281698</v>
+        <v>0.008966403392633993</v>
       </c>
       <c r="H52">
-        <v>1.074138902741658</v>
+        <v>1.094274348832357</v>
       </c>
       <c r="I52">
-        <v>1.074138902741658</v>
+        <v>1.094274348832357</v>
       </c>
       <c r="J52">
-        <v>1.074138902741658</v>
+        <v>1.094274348832357</v>
       </c>
       <c r="K52">
-        <v>1.000110460370637</v>
+        <v>1.000110460370631</v>
       </c>
       <c r="L52">
-        <v>0.1677147623858164</v>
+        <v>0.1797431626447225</v>
       </c>
       <c r="M52">
-        <v>0.9996780051435354</v>
+        <v>0.9996780051435382</v>
       </c>
       <c r="N52">
-        <v>0.214508301021781</v>
+        <v>0.2276569936405029</v>
       </c>
       <c r="O52">
-        <v>71.60926018277718</v>
+        <v>72.95162325549049</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2865,46 +2865,46 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.273814090370563</v>
+        <v>0.07570416750521855</v>
       </c>
       <c r="C53">
-        <v>-28.76763548831163</v>
+        <v>-28.38316423113979</v>
       </c>
       <c r="D53">
-        <v>-0.2350057480725021</v>
+        <v>-0.03792937176581833</v>
       </c>
       <c r="E53">
-        <v>28.78756668633137</v>
+        <v>28.40256462006274</v>
       </c>
       <c r="F53">
-        <v>0.0388083422980609</v>
+        <v>0.03777479573940022</v>
       </c>
       <c r="G53">
-        <v>0.0199311980197372</v>
+        <v>0.01940038892294993</v>
       </c>
       <c r="H53">
-        <v>1.510464036256505</v>
+        <v>1.490214914119615</v>
       </c>
       <c r="I53">
-        <v>1.510464036256505</v>
+        <v>1.490214914119615</v>
       </c>
       <c r="J53">
-        <v>1.510464036256505</v>
+        <v>1.490214914119615</v>
       </c>
       <c r="K53">
-        <v>0.9996780051435354</v>
+        <v>0.9996780051435382</v>
       </c>
       <c r="L53">
-        <v>0.214508301021781</v>
+        <v>0.2276569936405029</v>
       </c>
       <c r="M53">
-        <v>1.000358636228653</v>
+        <v>1.00035863622865</v>
       </c>
       <c r="N53">
-        <v>0.1368967150603687</v>
+        <v>0.1513507806994151</v>
       </c>
       <c r="O53">
-        <v>151.0464036256505</v>
+        <v>149.0214914119615</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2912,46 +2912,46 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.03792645818640527</v>
+        <v>0.03792645816995866</v>
       </c>
       <c r="C54">
-        <v>13.64954581265216</v>
+        <v>13.64954581262493</v>
       </c>
       <c r="D54">
-        <v>-0.02920225059624742</v>
+        <v>-0.02920225057983487</v>
       </c>
       <c r="E54">
-        <v>-13.64506523196388</v>
+        <v>-13.64506523193667</v>
       </c>
       <c r="F54">
-        <v>0.008724207590157851</v>
+        <v>0.008724207590123788</v>
       </c>
       <c r="G54">
-        <v>0.004480580688278835</v>
+        <v>0.004480580688262847</v>
       </c>
       <c r="H54">
-        <v>0.7161612831956337</v>
+        <v>0.716161283194205</v>
       </c>
       <c r="I54">
-        <v>0.7161612831956334</v>
+        <v>0.716161283194205</v>
       </c>
       <c r="J54">
-        <v>0.7161612831956337</v>
+        <v>0.716161283194205</v>
       </c>
       <c r="K54">
-        <v>1.000358636228653</v>
+        <v>1.00035863622865</v>
       </c>
       <c r="L54">
-        <v>0.1368967150603687</v>
+        <v>0.1513507806994151</v>
       </c>
       <c r="M54">
-        <v>1.000028689684346</v>
+        <v>1.000028689684344</v>
       </c>
       <c r="N54">
-        <v>0.1734772601565864</v>
+        <v>0.1879313257955858</v>
       </c>
       <c r="O54">
-        <v>71.61612831956336</v>
+        <v>71.6161283194205</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2959,46 +2959,46 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.03532725058772113</v>
+        <v>0.03532725058799119</v>
       </c>
       <c r="C55">
-        <v>-24.24957820420676</v>
+        <v>-24.24957820446158</v>
       </c>
       <c r="D55">
-        <v>-0.007773414603044121</v>
+        <v>-0.00777341460273507</v>
       </c>
       <c r="E55">
-        <v>24.26372931009518</v>
+        <v>24.26372931035031</v>
       </c>
       <c r="F55">
-        <v>0.02755383598467701</v>
+        <v>0.02755383598525613</v>
       </c>
       <c r="G55">
-        <v>0.01415110588842339</v>
+        <v>0.01415110588872537</v>
       </c>
       <c r="H55">
-        <v>1.272737609260799</v>
+        <v>1.272737609274176</v>
       </c>
       <c r="I55">
-        <v>1.272737609260799</v>
+        <v>1.272737609274176</v>
       </c>
       <c r="J55">
-        <v>1.272737609260799</v>
+        <v>1.272737609274176</v>
       </c>
       <c r="K55">
-        <v>1.000028689684346</v>
+        <v>1.000028689684344</v>
       </c>
       <c r="L55">
-        <v>0.1734772601565864</v>
+        <v>0.1879313257955858</v>
       </c>
       <c r="M55">
-        <v>1.000611256876386</v>
+        <v>1.00061125687639</v>
       </c>
       <c r="N55">
-        <v>0.1083636801042247</v>
+        <v>0.1228177457425403</v>
       </c>
       <c r="O55">
-        <v>127.2737609260799</v>
+        <v>84.84917395161176</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3006,46 +3006,46 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.01652341461491826</v>
+        <v>0.01652341461291366</v>
       </c>
       <c r="C56">
-        <v>24.5729625090021</v>
+        <v>24.57296250910053</v>
       </c>
       <c r="D56">
-        <v>0.007699999993657336</v>
+        <v>0.007699999995855217</v>
       </c>
       <c r="E56">
-        <v>-24.56052184174634</v>
+        <v>-24.56052184184466</v>
       </c>
       <c r="F56">
-        <v>0.02422341460857559</v>
+        <v>0.02422341460876888</v>
       </c>
       <c r="G56">
-        <v>0.01244066725575976</v>
+        <v>0.01244066725586279</v>
       </c>
       <c r="H56">
-        <v>1.288958454076687</v>
+        <v>1.288958454081844</v>
       </c>
       <c r="I56">
-        <v>1.288958454076687</v>
+        <v>1.288958454081844</v>
       </c>
       <c r="J56">
-        <v>1.288958454076687</v>
+        <v>1.288958454081844</v>
       </c>
       <c r="K56">
-        <v>1.000611256876386</v>
+        <v>1.00061125687639</v>
       </c>
       <c r="L56">
-        <v>0.1083636801042247</v>
+        <v>0.1228177457425403</v>
       </c>
       <c r="M56">
-        <v>1.000104495842715</v>
+        <v>1.000104495842717</v>
       </c>
       <c r="N56">
-        <v>0.1648535207133366</v>
+        <v>0.1793075863518792</v>
       </c>
       <c r="O56">
-        <v>128.8958454076687</v>
+        <v>85.93056360545629</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3053,46 +3053,46 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1970792899081964</v>
+        <v>2.913606660813819e-06</v>
       </c>
       <c r="C57">
-        <v>2.722165602042801</v>
+        <v>3.106004599179804</v>
       </c>
       <c r="D57">
-        <v>-0.1967803121187908</v>
+        <v>0.0003842937823316066</v>
       </c>
       <c r="E57">
-        <v>-2.722012052955897</v>
+        <v>-3.105805737113359</v>
       </c>
       <c r="F57">
-        <v>0.00029897778940563</v>
+        <v>0.0003872073889924204</v>
       </c>
       <c r="G57">
-        <v>0.0001535490869044587</v>
+        <v>0.0001988620664454821</v>
       </c>
       <c r="H57">
-        <v>0.1431992361056765</v>
+        <v>0.1629645178782194</v>
       </c>
       <c r="I57">
-        <v>0.1431992361056765</v>
+        <v>0.1629645178782194</v>
       </c>
       <c r="J57">
-        <v>0.1431992361056765</v>
+        <v>0.1629645178782194</v>
       </c>
       <c r="K57">
-        <v>1.000358636228653</v>
+        <v>1.00035863622865</v>
       </c>
       <c r="L57">
-        <v>0.1368967150603687</v>
+        <v>0.1513507806994151</v>
       </c>
       <c r="M57">
-        <v>1.000294595884544</v>
+        <v>1.000294595884545</v>
       </c>
       <c r="N57">
-        <v>0.142924372306268</v>
+        <v>0.1584939635842617</v>
       </c>
       <c r="O57">
-        <v>14.31992361056765</v>
+        <v>16.29645178782194</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3100,46 +3100,46 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.2029053121340181</v>
+        <v>0.005740706232721592</v>
       </c>
       <c r="C58">
-        <v>3.512119356959599</v>
+        <v>3.896160076280746</v>
       </c>
       <c r="D58">
-        <v>-0.2024085131241777</v>
+        <v>-0.005131352353241254</v>
       </c>
       <c r="E58">
-        <v>-3.511864210801458</v>
+        <v>-3.895847124164864</v>
       </c>
       <c r="F58">
-        <v>0.000496799009840343</v>
+        <v>0.0006093538794803375</v>
       </c>
       <c r="G58">
-        <v>0.0002551461581403736</v>
+        <v>0.0003129521158813375</v>
       </c>
       <c r="H58">
-        <v>0.1845914574456115</v>
+        <v>0.2044353660558392</v>
       </c>
       <c r="I58">
-        <v>0.1845914574456115</v>
+        <v>0.2044353660558392</v>
       </c>
       <c r="J58">
-        <v>0.1845914574456115</v>
+        <v>0.2044353660558392</v>
       </c>
       <c r="K58">
-        <v>1.000294595884544</v>
+        <v>1.000294595884545</v>
       </c>
       <c r="L58">
-        <v>0.142924372306268</v>
+        <v>0.1584939635842617</v>
       </c>
       <c r="M58">
-        <v>1.000214030884972</v>
+        <v>1.000214030884968</v>
       </c>
       <c r="N58">
-        <v>0.1507630162363515</v>
+        <v>0.1674488626477279</v>
       </c>
       <c r="O58">
-        <v>18.45914574456115</v>
+        <v>20.44353660558392</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3147,46 +3147,46 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.2095835131324984</v>
+        <v>0.01230635233801398</v>
       </c>
       <c r="C59">
-        <v>-17.89126814652346</v>
+        <v>-17.50781940407073</v>
       </c>
       <c r="D59">
-        <v>-0.196730443649298</v>
+        <v>-5.372834122052694e-12</v>
       </c>
       <c r="E59">
-        <v>17.89786922912224</v>
+        <v>17.51413970354034</v>
       </c>
       <c r="F59">
-        <v>0.01285306948320042</v>
+        <v>0.01230635233264114</v>
       </c>
       <c r="G59">
-        <v>0.006601082598777452</v>
+        <v>0.006320299469606994</v>
       </c>
       <c r="H59">
-        <v>0.9389115156599525</v>
+        <v>0.9187257954834692</v>
       </c>
       <c r="I59">
-        <v>0.9389115156599519</v>
+        <v>0.9187257954834694</v>
       </c>
       <c r="J59">
-        <v>0.9389115156599525</v>
+        <v>0.9187257954834694</v>
       </c>
       <c r="K59">
-        <v>1.000214030884972</v>
+        <v>1.000214030884968</v>
       </c>
       <c r="L59">
-        <v>0.1507630162363515</v>
+        <v>0.1674488626477279</v>
       </c>
       <c r="M59">
-        <v>1.00057485963654</v>
+        <v>1.000574859636538</v>
       </c>
       <c r="N59">
-        <v>0.1093747578958573</v>
+        <v>0.1271753187263969</v>
       </c>
       <c r="O59">
-        <v>93.89115156599524</v>
+        <v>91.87257954834695</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3194,46 +3194,46 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.2030304436448783</v>
+        <v>-0.3702007266565703</v>
       </c>
       <c r="C60">
-        <v>36.26216974055012</v>
+        <v>24.70229265367031</v>
       </c>
       <c r="D60">
-        <v>-0.150274315702904</v>
+        <v>0.39876804457686</v>
       </c>
       <c r="E60">
-        <v>-36.23507523533547</v>
+        <v>-24.68762104347915</v>
       </c>
       <c r="F60">
-        <v>0.05275612794197432</v>
+        <v>0.02856731792028971</v>
       </c>
       <c r="G60">
-        <v>0.02709450521464873</v>
+        <v>0.01467161019115792</v>
       </c>
       <c r="H60">
-        <v>1.902206644788415</v>
+        <v>1.295933084118109</v>
       </c>
       <c r="I60">
-        <v>1.902206644788414</v>
+        <v>1.295933084118109</v>
       </c>
       <c r="J60">
-        <v>1.902206644788415</v>
+        <v>1.295933084118109</v>
       </c>
       <c r="K60">
-        <v>1.00057485963654</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="L60">
-        <v>0.1093747578958573</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="M60">
-        <v>0.9998201732259927</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>0.1925521633134086</v>
+        <v>0.2044576623006597</v>
       </c>
       <c r="O60">
-        <v>190.2206644788415</v>
+        <v>86.39553894120729</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3241,46 +3241,46 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1572743157146787</v>
+        <v>0.695414389888786</v>
       </c>
       <c r="C61">
-        <v>-62.56392340594281</v>
+        <v>22.621767058198</v>
       </c>
       <c r="D61">
-        <v>3.72463865305761e-12</v>
+        <v>-0.6714392758100439</v>
       </c>
       <c r="E61">
-        <v>62.64469638784264</v>
+        <v>-22.60945391318965</v>
       </c>
       <c r="F61">
-        <v>0.1572743157184033</v>
+        <v>0.02397511407874209</v>
       </c>
       <c r="G61">
-        <v>0.08077298189982685</v>
+        <v>0.01231314500834557</v>
       </c>
       <c r="H61">
-        <v>3.284355355947746</v>
+        <v>1.187211744864963</v>
       </c>
       <c r="I61">
-        <v>3.284355355947747</v>
+        <v>1.187211744864963</v>
       </c>
       <c r="J61">
-        <v>3.284355355947747</v>
+        <v>1.187211744864963</v>
       </c>
       <c r="K61">
-        <v>0.9998201732259927</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="L61">
-        <v>0.1925521633134086</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="M61">
-        <v>1.00110782518556</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N61">
-        <v>0.04852130583765189</v>
+        <v>0.197406454793766</v>
       </c>
       <c r="O61">
-        <v>328.4355355947746</v>
+        <v>59.36058724324814</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3288,140 +3288,46 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.4315815490135556</v>
+        <v>-12.07290376209585</v>
       </c>
       <c r="C62">
-        <v>8.442004608287379</v>
+        <v>12.72980423353556</v>
       </c>
       <c r="D62">
-        <v>0.4349286101955424</v>
+        <v>12.11042773638302</v>
       </c>
       <c r="E62">
-        <v>-8.440285623779099</v>
+        <v>-12.70807741742908</v>
       </c>
       <c r="F62">
-        <v>0.003347061181986799</v>
+        <v>0.03752397428716847</v>
       </c>
       <c r="G62">
-        <v>0.001718984508279675</v>
+        <v>0.02172681610647942</v>
       </c>
       <c r="H62">
-        <v>0.4435878770912374</v>
+        <v>0.920837624845168</v>
       </c>
       <c r="I62">
-        <v>0.4435878770912373</v>
+        <v>0.9208376248451681</v>
       </c>
       <c r="J62">
-        <v>0.4435878770912374</v>
+        <v>0.9208376248451681</v>
       </c>
       <c r="K62">
-        <v>1.000182826744022</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>0.1759337841945885</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="N62">
-        <v>0.1991901664816307</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="O62">
-        <v>29.57252513941582</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>0.8708530778644561</v>
-      </c>
-      <c r="C63">
-        <v>5.903948638222039</v>
-      </c>
-      <c r="D63">
-        <v>-0.8691847869497032</v>
-      </c>
-      <c r="E63">
-        <v>-5.903091836962116</v>
-      </c>
-      <c r="F63">
-        <v>0.001668290914752846</v>
-      </c>
-      <c r="G63">
-        <v>0.0008568012599221575</v>
-      </c>
-      <c r="H63">
-        <v>0.3131725838875886</v>
-      </c>
-      <c r="I63">
-        <v>0.3131725838875885</v>
-      </c>
-      <c r="J63">
-        <v>0.3131725838875886</v>
-      </c>
-      <c r="K63">
-        <v>1.000182826744022</v>
-      </c>
-      <c r="L63">
-        <v>0.1759337841945885</v>
-      </c>
-      <c r="M63">
-        <v>0.9999999999999829</v>
-      </c>
-      <c r="N63">
-        <v>0.1905815257180109</v>
-      </c>
-      <c r="O63">
-        <v>15.65862919437943</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>-12.0184588113234</v>
-      </c>
-      <c r="C64">
-        <v>18.23355484588456</v>
-      </c>
-      <c r="D64">
-        <v>12.07659797293501</v>
-      </c>
-      <c r="E64">
-        <v>-18.19989159733701</v>
-      </c>
-      <c r="F64">
-        <v>0.05813916161161536</v>
-      </c>
-      <c r="G64">
-        <v>0.03366324854754055</v>
-      </c>
-      <c r="H64">
-        <v>1.146206913225794</v>
-      </c>
-      <c r="I64">
-        <v>1.146206913225795</v>
-      </c>
-      <c r="J64">
-        <v>1.146206913225795</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>1.000182826744022</v>
-      </c>
-      <c r="N64">
-        <v>0.1759337841945885</v>
-      </c>
-      <c r="O64">
-        <v>114.6206913225795</v>
+        <v>61.38917498967788</v>
       </c>
     </row>
   </sheetData>

--- a/result/line_init.xlsx
+++ b/result/line_init.xlsx
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,46 +468,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.3987680445856197</v>
+        <v>-0.3987680446145376</v>
       </c>
       <c r="C2">
-        <v>-17.9139751790174</v>
+        <v>-17.91397517844276</v>
       </c>
       <c r="D2">
-        <v>0.413813203209806</v>
+        <v>0.4138132032377594</v>
       </c>
       <c r="E2">
-        <v>17.92170207529846</v>
+        <v>17.92170207472333</v>
       </c>
       <c r="F2">
-        <v>0.01504515862418632</v>
+        <v>0.01504515862322175</v>
       </c>
       <c r="G2">
-        <v>0.007726896281059936</v>
+        <v>0.007726896280569662</v>
       </c>
       <c r="H2">
-        <v>0.9404727764066737</v>
+        <v>0.9404727763765391</v>
       </c>
       <c r="I2">
-        <v>0.9404727764066733</v>
+        <v>0.940472776376539</v>
       </c>
       <c r="J2">
-        <v>0.9404727764066737</v>
+        <v>0.9404727763765391</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="L2">
-        <v>0.2044576623006597</v>
+        <v>0.2189475394097234</v>
       </c>
       <c r="M2">
-        <v>1.000450150037181</v>
+        <v>1.000450150037185</v>
       </c>
       <c r="N2">
-        <v>0.1569325374952375</v>
+        <v>0.1714224146058856</v>
       </c>
       <c r="O2">
-        <v>62.69818509377825</v>
+        <v>62.69818509176928</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -515,46 +515,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.3648132032195166</v>
+        <v>-0.3648132032426051</v>
       </c>
       <c r="C3">
-        <v>20.70802473101513</v>
+        <v>20.7080247310192</v>
       </c>
       <c r="D3">
-        <v>0.3848957550851096</v>
+        <v>0.3848957551082092</v>
       </c>
       <c r="E3">
-        <v>-20.69771072906935</v>
+        <v>-20.69771072907341</v>
       </c>
       <c r="F3">
-        <v>0.02008255186559305</v>
+        <v>0.02008255186560409</v>
       </c>
       <c r="G3">
-        <v>0.01031400194578325</v>
+        <v>0.0103140019457939</v>
       </c>
       <c r="H3">
-        <v>1.086568953570778</v>
+        <v>1.086568953571009</v>
       </c>
       <c r="I3">
-        <v>1.086568953570778</v>
+        <v>1.086568953571009</v>
       </c>
       <c r="J3">
-        <v>1.086568953570778</v>
+        <v>1.086568953571009</v>
       </c>
       <c r="K3">
-        <v>1.000450150037181</v>
+        <v>1.000450150037185</v>
       </c>
       <c r="L3">
-        <v>0.1569325374952375</v>
+        <v>0.1714224146058856</v>
       </c>
       <c r="M3">
-        <v>0.999969578776834</v>
+        <v>0.9999695787768388</v>
       </c>
       <c r="N3">
-        <v>0.2130100238375115</v>
+        <v>0.227499900948209</v>
       </c>
       <c r="O3">
-        <v>72.43793023805189</v>
+        <v>72.43793023806727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -562,46 +562,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3562204724693535</v>
+        <v>-0.3562204724927956</v>
       </c>
       <c r="C4">
-        <v>2.454239776162101</v>
+        <v>2.454239779685049</v>
       </c>
       <c r="D4">
-        <v>0.3565086846664001</v>
+        <v>0.3565086846906528</v>
       </c>
       <c r="E4">
-        <v>-2.454091756070778</v>
+        <v>-2.45409175959331</v>
       </c>
       <c r="F4">
-        <v>0.0002882121970466112</v>
+        <v>0.000288212197857185</v>
       </c>
       <c r="G4">
-        <v>0.0001480200913226426</v>
+        <v>0.0001480200917396424</v>
       </c>
       <c r="H4">
-        <v>0.1301679368057669</v>
+        <v>0.1301679369889379</v>
       </c>
       <c r="I4">
-        <v>0.1301679368057669</v>
+        <v>0.1301679369889379</v>
       </c>
       <c r="J4">
-        <v>0.1301679368057669</v>
+        <v>0.1301679369889379</v>
       </c>
       <c r="K4">
-        <v>0.999969578776834</v>
+        <v>0.9999695787768388</v>
       </c>
       <c r="L4">
-        <v>0.2130100238375115</v>
+        <v>0.227499900948209</v>
       </c>
       <c r="M4">
-        <v>0.9999272134207779</v>
+        <v>0.9999272134206989</v>
       </c>
       <c r="N4">
-        <v>0.2200912125242107</v>
+        <v>0.2345810896443885</v>
       </c>
       <c r="O4">
-        <v>13.01679368057669</v>
+        <v>13.01679369889379</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -609,46 +609,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1837030931267072</v>
+        <v>-0.1837030931285283</v>
       </c>
       <c r="C5">
-        <v>-9.820199874375827</v>
+        <v>-9.820199876881636</v>
       </c>
       <c r="D5">
-        <v>0.1882242910240366</v>
+        <v>0.1882242910281634</v>
       </c>
       <c r="E5">
-        <v>9.822521872308283</v>
+        <v>9.822521874815278</v>
       </c>
       <c r="F5">
-        <v>0.004521197897329465</v>
+        <v>0.004521197899635093</v>
       </c>
       <c r="G5">
-        <v>0.002321997932455133</v>
+        <v>0.00232199793364174</v>
       </c>
       <c r="H5">
-        <v>0.5155545234280903</v>
+        <v>0.5155545235596403</v>
       </c>
       <c r="I5">
-        <v>0.5155545234280903</v>
+        <v>0.5155545235596404</v>
       </c>
       <c r="J5">
-        <v>0.5155545234280903</v>
+        <v>0.5155545235596404</v>
       </c>
       <c r="K5">
-        <v>0.9999272134207779</v>
+        <v>0.9999272134206989</v>
       </c>
       <c r="L5">
-        <v>0.2200912125242107</v>
+        <v>0.2345810896443885</v>
       </c>
       <c r="M5">
-        <v>1.0001722774035</v>
+        <v>1.000172277403482</v>
       </c>
       <c r="N5">
-        <v>0.1939813332929276</v>
+        <v>0.2084712104063883</v>
       </c>
       <c r="O5">
-        <v>51.55545234280903</v>
+        <v>51.55545235596404</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -656,46 +656,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1469242910227901</v>
+        <v>-0.1469242910261195</v>
       </c>
       <c r="C6">
-        <v>8.192109612834845</v>
+        <v>8.192109611762518</v>
       </c>
       <c r="D6">
-        <v>0.1500689911974788</v>
+        <v>0.1500689911999842</v>
       </c>
       <c r="E6">
-        <v>-8.190494556942658</v>
+        <v>-8.190494555870753</v>
       </c>
       <c r="F6">
-        <v>0.003144700174688764</v>
+        <v>0.003144700173864728</v>
       </c>
       <c r="G6">
-        <v>0.001615055892186135</v>
+        <v>0.001615055891765138</v>
       </c>
       <c r="H6">
-        <v>0.4299693175474191</v>
+        <v>0.4299693174911663</v>
       </c>
       <c r="I6">
-        <v>0.4299693175474191</v>
+        <v>0.4299693174911663</v>
       </c>
       <c r="J6">
-        <v>0.4299693175474191</v>
+        <v>0.4299693174911663</v>
       </c>
       <c r="K6">
-        <v>1.0001722774035</v>
+        <v>1.000172277403482</v>
       </c>
       <c r="L6">
-        <v>0.1939813332929276</v>
+        <v>0.2084712104063883</v>
       </c>
       <c r="M6">
-        <v>0.999982117738603</v>
+        <v>0.9999821177386103</v>
       </c>
       <c r="N6">
-        <v>0.2161750996587256</v>
+        <v>0.2306649767693044</v>
       </c>
       <c r="O6">
-        <v>42.99693175474192</v>
+        <v>42.99693174911663</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -703,46 +703,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1081830748256323</v>
+        <v>-0.1081830748341548</v>
       </c>
       <c r="C7">
-        <v>-16.68334266903639</v>
+        <v>-16.68334266841149</v>
       </c>
       <c r="D7">
-        <v>0.1212266793403991</v>
+        <v>0.1212266793479447</v>
       </c>
       <c r="E7">
-        <v>16.69004160666374</v>
+        <v>16.69004160603833</v>
       </c>
       <c r="F7">
-        <v>0.01304360451476681</v>
+        <v>0.01304360451378987</v>
       </c>
       <c r="G7">
-        <v>0.006698937627344748</v>
+        <v>0.006698937626833157</v>
       </c>
       <c r="H7">
-        <v>0.8756824671928828</v>
+        <v>0.8756824671600806</v>
       </c>
       <c r="I7">
-        <v>0.875682467192883</v>
+        <v>0.8756824671600806</v>
       </c>
       <c r="J7">
-        <v>0.875682467192883</v>
+        <v>0.8756824671600806</v>
       </c>
       <c r="K7">
-        <v>0.999982117738603</v>
+        <v>0.9999821177386103</v>
       </c>
       <c r="L7">
-        <v>0.2161750996587256</v>
+        <v>0.2306649767693044</v>
       </c>
       <c r="M7">
-        <v>1.0003890011149</v>
+        <v>1.000389001114892</v>
       </c>
       <c r="N7">
-        <v>0.1715485259414439</v>
+        <v>0.1860384030537106</v>
       </c>
       <c r="O7">
-        <v>87.5682467192883</v>
+        <v>87.56824671600806</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -750,46 +750,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.1047766793434312</v>
+        <v>-0.1047766793478661</v>
       </c>
       <c r="C8">
-        <v>-8.895338338699258</v>
+        <v>-8.895338339166582</v>
       </c>
       <c r="D8">
-        <v>0.1084821643906486</v>
+        <v>0.1084821643954733</v>
       </c>
       <c r="E8">
-        <v>8.897241402624742</v>
+        <v>8.897241403092268</v>
       </c>
       <c r="F8">
-        <v>0.003705485047217474</v>
+        <v>0.00370548504760726</v>
       </c>
       <c r="G8">
-        <v>0.001903063925484005</v>
+        <v>0.00190306392568651</v>
       </c>
       <c r="H8">
-        <v>0.4667350067885173</v>
+        <v>0.4667350068130404</v>
       </c>
       <c r="I8">
-        <v>0.4667350067885173</v>
+        <v>0.4667350068130405</v>
       </c>
       <c r="J8">
-        <v>0.4667350067885173</v>
+        <v>0.4667350068130405</v>
       </c>
       <c r="K8">
-        <v>1.0003890011149</v>
+        <v>1.000389001114892</v>
       </c>
       <c r="L8">
-        <v>0.1715485259414439</v>
+        <v>0.1860384030537106</v>
       </c>
       <c r="M8">
-        <v>1.0006079876945</v>
+        <v>1.000607987694504</v>
       </c>
       <c r="N8">
-        <v>0.1478339838914998</v>
+        <v>0.1623238610025166</v>
       </c>
       <c r="O8">
-        <v>46.67350067885172</v>
+        <v>46.67350068130405</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -797,46 +797,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.08888216438748467</v>
+        <v>-0.08888216438135188</v>
       </c>
       <c r="C9">
-        <v>23.42583420727771</v>
+        <v>23.42583420778294</v>
       </c>
       <c r="D9">
-        <v>0.1145663701372307</v>
+        <v>0.1145663701322068</v>
       </c>
       <c r="E9">
-        <v>-23.41264330654697</v>
+        <v>-23.41264330705165</v>
       </c>
       <c r="F9">
-        <v>0.02568420574974599</v>
+        <v>0.02568420575085492</v>
       </c>
       <c r="G9">
-        <v>0.01319090073073781</v>
+        <v>0.01319090073129914</v>
       </c>
       <c r="H9">
-        <v>1.228799181302063</v>
+        <v>1.228799181328559</v>
       </c>
       <c r="I9">
-        <v>1.228799181302063</v>
+        <v>1.228799181328559</v>
       </c>
       <c r="J9">
-        <v>1.228799181302063</v>
+        <v>1.228799181328559</v>
       </c>
       <c r="K9">
-        <v>1.0006079876945</v>
+        <v>1.000607987694504</v>
       </c>
       <c r="L9">
-        <v>0.1478339838914998</v>
+        <v>0.1623238610025166</v>
       </c>
       <c r="M9">
-        <v>1.00004932794153</v>
+        <v>1.000049327941521</v>
       </c>
       <c r="N9">
-        <v>0.2108100515186774</v>
+        <v>0.2252999286310448</v>
       </c>
       <c r="O9">
-        <v>122.8799181302063</v>
+        <v>81.91994542190393</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -844,46 +844,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.07257571010224492</v>
+        <v>-0.072575710097229</v>
       </c>
       <c r="C10">
-        <v>1.204171882082922</v>
+        <v>1.204171882860501</v>
       </c>
       <c r="D10">
-        <v>0.07264389787801595</v>
+        <v>0.07264389787308773</v>
       </c>
       <c r="E10">
-        <v>-1.204136862188205</v>
+        <v>-1.204136862965739</v>
       </c>
       <c r="F10">
-        <v>6.818777577102808e-05</v>
+        <v>6.818777585872182e-05</v>
       </c>
       <c r="G10">
-        <v>3.501989471699218e-05</v>
+        <v>3.501989476184519e-05</v>
       </c>
       <c r="H10">
-        <v>0.06331419731839968</v>
+        <v>0.06331419735912076</v>
       </c>
       <c r="I10">
-        <v>0.0633141973183997</v>
+        <v>0.06331419735912078</v>
       </c>
       <c r="J10">
-        <v>0.0633141973183997</v>
+        <v>0.06331419735912078</v>
       </c>
       <c r="K10">
-        <v>1.00004932794153</v>
+        <v>1.000049327941521</v>
       </c>
       <c r="L10">
-        <v>0.2108100515186774</v>
+        <v>0.2252999286310448</v>
       </c>
       <c r="M10">
-        <v>1.00002375201704</v>
+        <v>1.000023752017013</v>
       </c>
       <c r="N10">
-        <v>0.2141429047102356</v>
+        <v>0.2286327818246822</v>
       </c>
       <c r="O10">
-        <v>6.331419731839969</v>
+        <v>6.331419735912077</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -891,46 +891,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.02867528262215508</v>
+        <v>-0.02867528262073489</v>
       </c>
       <c r="C11">
-        <v>-1.885458830468674</v>
+        <v>-1.885458831504519</v>
       </c>
       <c r="D11">
-        <v>0.02940000000066383</v>
+        <v>0.02940000000003971</v>
       </c>
       <c r="E11">
-        <v>1.885533506334805</v>
+        <v>1.885533507370732</v>
       </c>
       <c r="F11">
-        <v>0.0007247173785087484</v>
+        <v>0.0007247173793048234</v>
       </c>
       <c r="G11">
-        <v>7.467586613096877e-05</v>
+        <v>7.467586621290323e-05</v>
       </c>
       <c r="H11">
-        <v>0.09897537920863739</v>
+        <v>0.09897537926299892</v>
       </c>
       <c r="I11">
-        <v>0.09897537920863737</v>
+        <v>0.09897537926299889</v>
       </c>
       <c r="J11">
-        <v>0.09897537920863739</v>
+        <v>0.09897537926299892</v>
       </c>
       <c r="K11">
-        <v>0.999969578776834</v>
+        <v>0.9999695787768388</v>
       </c>
       <c r="L11">
-        <v>0.2130100238375115</v>
+        <v>0.227499900948209</v>
       </c>
       <c r="M11">
-        <v>1.0000150924645</v>
+        <v>1.000015092464526</v>
       </c>
       <c r="N11">
-        <v>0.1910277339396018</v>
+        <v>0.2055176110382032</v>
       </c>
       <c r="O11">
-        <v>9.897537920863739</v>
+        <v>9.897537926299892</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -938,46 +938,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1728055915494588</v>
+        <v>-0.1728055915553616</v>
       </c>
       <c r="C12">
-        <v>-2.057400260915728</v>
+        <v>-2.05740026270065</v>
       </c>
       <c r="D12">
-        <v>0.1738192889982286</v>
+        <v>0.1738192890058786</v>
       </c>
       <c r="E12">
-        <v>2.057504713682042</v>
+        <v>2.057504715467145</v>
       </c>
       <c r="F12">
-        <v>0.001013697448769835</v>
+        <v>0.001013697450517076</v>
       </c>
       <c r="G12">
-        <v>0.0001044527663145445</v>
+        <v>0.0001044527664952888</v>
       </c>
       <c r="H12">
-        <v>0.108373629508369</v>
+        <v>0.1083736296017657</v>
       </c>
       <c r="I12">
-        <v>0.108373629508369</v>
+        <v>0.1083736296017657</v>
       </c>
       <c r="J12">
-        <v>0.108373629508369</v>
+        <v>0.1083736296017657</v>
       </c>
       <c r="K12">
-        <v>0.9999272134207779</v>
+        <v>0.9999272134206989</v>
       </c>
       <c r="L12">
-        <v>0.2200912125242107</v>
+        <v>0.2345810896443885</v>
       </c>
       <c r="M12">
-        <v>1.00001883173377</v>
+        <v>1.000018831733736</v>
       </c>
       <c r="N12">
-        <v>0.1923040417943302</v>
+        <v>0.2067939188901947</v>
       </c>
       <c r="O12">
-        <v>10.8373629508369</v>
+        <v>10.83736296017656</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -985,46 +985,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1437192889994623</v>
+        <v>-0.1437192890103909</v>
       </c>
       <c r="C13">
-        <v>3.094532562573008</v>
+        <v>3.094532559105748</v>
       </c>
       <c r="D13">
-        <v>0.146001017626274</v>
+        <v>0.1460010176321013</v>
       </c>
       <c r="E13">
-        <v>-3.094297450146378</v>
+        <v>-3.094297446679642</v>
       </c>
       <c r="F13">
-        <v>0.002281728626811724</v>
+        <v>0.002281728621710361</v>
       </c>
       <c r="G13">
-        <v>0.000235112426630657</v>
+        <v>0.0002351124261061877</v>
       </c>
       <c r="H13">
-        <v>0.1625928476158677</v>
+        <v>0.1625928474341152</v>
       </c>
       <c r="I13">
-        <v>0.1625928476158677</v>
+        <v>0.1625928474341152</v>
       </c>
       <c r="J13">
-        <v>0.1625928476158677</v>
+        <v>0.1625928474341152</v>
       </c>
       <c r="K13">
-        <v>1.00001883173377</v>
+        <v>1.000018831733736</v>
       </c>
       <c r="L13">
-        <v>0.1923040417943302</v>
+        <v>0.2067939188901947</v>
       </c>
       <c r="M13">
-        <v>0.9999774616845741</v>
+        <v>0.9999774616846271</v>
       </c>
       <c r="N13">
-        <v>0.234663189182123</v>
+        <v>0.2491530662307657</v>
       </c>
       <c r="O13">
-        <v>16.25928476158677</v>
+        <v>16.25928474341152</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.09700101762735718</v>
+        <v>-0.09700101762822848</v>
       </c>
       <c r="C14">
-        <v>0.9319136299187027</v>
+        <v>0.9319136321493336</v>
       </c>
       <c r="D14">
-        <v>0.09720975747878727</v>
+        <v>0.09720975748064724</v>
       </c>
       <c r="E14">
-        <v>-0.9318921210799969</v>
+        <v>-0.9318921233105262</v>
       </c>
       <c r="F14">
-        <v>0.0002087398514300925</v>
+        <v>0.00020873985241876</v>
       </c>
       <c r="G14">
-        <v>2.150883870588594e-05</v>
+        <v>2.150883880747134e-05</v>
       </c>
       <c r="H14">
-        <v>0.04917814314137097</v>
+        <v>0.04917814325782435</v>
       </c>
       <c r="I14">
-        <v>0.04917814314137097</v>
+        <v>0.04917814325782436</v>
       </c>
       <c r="J14">
-        <v>0.04917814314137097</v>
+        <v>0.04917814325782436</v>
       </c>
       <c r="K14">
-        <v>0.9999774616845741</v>
+        <v>0.9999774616846271</v>
       </c>
       <c r="L14">
-        <v>0.234663189182123</v>
+        <v>0.2491530662307657</v>
       </c>
       <c r="M14">
-        <v>0.999977718681453</v>
+        <v>0.9999777186814519</v>
       </c>
       <c r="N14">
-        <v>0.2474955163210651</v>
+        <v>0.2619853934001002</v>
       </c>
       <c r="O14">
-        <v>4.917814314137097</v>
+        <v>4.917814325782436</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.04890975748065327</v>
+        <v>-0.04890975748161158</v>
       </c>
       <c r="C15">
-        <v>-0.6636142828244749</v>
+        <v>-0.6636142837672353</v>
       </c>
       <c r="D15">
-        <v>0.04899999999917028</v>
+        <v>0.04900000000038364</v>
       </c>
       <c r="E15">
-        <v>0.6636235815365411</v>
+        <v>0.6636235824793277</v>
       </c>
       <c r="F15">
-        <v>9.024251851701831e-05</v>
+        <v>9.02425187720643e-05</v>
       </c>
       <c r="G15">
-        <v>9.29871206623023e-06</v>
+        <v>9.298712092431494e-06</v>
       </c>
       <c r="H15">
-        <v>0.03492596706481435</v>
+        <v>0.03492596711416742</v>
       </c>
       <c r="I15">
-        <v>0.03492596706481435</v>
+        <v>0.03492596711416743</v>
       </c>
       <c r="J15">
-        <v>0.03492596706481435</v>
+        <v>0.03492596711416743</v>
       </c>
       <c r="K15">
-        <v>0.999977718681453</v>
+        <v>0.9999777186814519</v>
       </c>
       <c r="L15">
-        <v>0.2474955163210651</v>
+        <v>0.2619853934001002</v>
       </c>
       <c r="M15">
-        <v>1.00000163201113</v>
+        <v>1.000001632011149</v>
       </c>
       <c r="N15">
-        <v>0.2398051991704088</v>
+        <v>0.254295076238436</v>
       </c>
       <c r="O15">
-        <v>3.492596706481435</v>
+        <v>3.492596711416743</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.041885916383225</v>
+        <v>-0.04188591638209817</v>
       </c>
       <c r="C16">
-        <v>0.7469961356594031</v>
+        <v>0.7469961361775611</v>
       </c>
       <c r="D16">
-        <v>0.04199999999898552</v>
+        <v>0.04199999999801644</v>
       </c>
       <c r="E16">
-        <v>-0.7469843803281928</v>
+        <v>-0.7469843808463346</v>
       </c>
       <c r="F16">
-        <v>0.0001140836157605199</v>
+        <v>0.0001140836159182687</v>
       </c>
       <c r="G16">
-        <v>1.175533121033911e-05</v>
+        <v>1.175533122654837e-05</v>
       </c>
       <c r="H16">
-        <v>0.03926941893626371</v>
+        <v>0.03926941896341418</v>
       </c>
       <c r="I16">
-        <v>0.03926941893626369</v>
+        <v>0.03926941896341418</v>
       </c>
       <c r="J16">
-        <v>0.03926941893626371</v>
+        <v>0.03926941896341418</v>
       </c>
       <c r="K16">
-        <v>0.999982117738603</v>
+        <v>0.9999821177386103</v>
       </c>
       <c r="L16">
-        <v>0.2161750996587256</v>
+        <v>0.2306649767693044</v>
       </c>
       <c r="M16">
-        <v>0.99997497883425</v>
+        <v>0.9999749788342462</v>
       </c>
       <c r="N16">
-        <v>0.224948528588967</v>
+        <v>0.2394384057055946</v>
       </c>
       <c r="O16">
-        <v>3.92694189362637</v>
+        <v>3.926941896341417</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.04199066003180829</v>
+        <v>-0.04199066003226801</v>
       </c>
       <c r="C17">
-        <v>0.2099285991866486</v>
+        <v>0.2099285988008798</v>
       </c>
       <c r="D17">
-        <v>0.04199999999884024</v>
+        <v>0.04199999999926697</v>
       </c>
       <c r="E17">
-        <v>-0.2099276367837196</v>
+        <v>-0.2099276363979543</v>
       </c>
       <c r="F17">
-        <v>9.339967031951613e-06</v>
+        <v>9.339966998964111e-06</v>
       </c>
       <c r="G17">
-        <v>9.624029289612146e-07</v>
+        <v>9.624029255472788e-07</v>
       </c>
       <c r="H17">
-        <v>0.01123609773429119</v>
+        <v>0.01123609771444267</v>
       </c>
       <c r="I17">
-        <v>0.01123609773429119</v>
+        <v>0.01123609771444267</v>
       </c>
       <c r="J17">
-        <v>0.01123609773429119</v>
+        <v>0.01123609771444267</v>
       </c>
       <c r="K17">
-        <v>1.00004932794153</v>
+        <v>1.000049327941521</v>
       </c>
       <c r="L17">
-        <v>0.2108100515186774</v>
+        <v>0.2252999286310448</v>
       </c>
       <c r="M17">
         <v>1.0000534779554</v>
       </c>
       <c r="N17">
-        <v>0.2133116488873963</v>
+        <v>0.2278015259952622</v>
       </c>
       <c r="O17">
-        <v>1.123609773429119</v>
+        <v>1.123609771444267</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.03624389787017451</v>
+        <v>-0.03624389787591564</v>
       </c>
       <c r="C18">
-        <v>5.31447796174886</v>
+        <v>5.314477959449249</v>
       </c>
       <c r="D18">
-        <v>0.04200000000057716</v>
+        <v>0.0420000000013374</v>
       </c>
       <c r="E18">
-        <v>-5.31388484514248</v>
+        <v>-5.313884842843382</v>
       </c>
       <c r="F18">
-        <v>0.005756102130402646</v>
+        <v>0.005756102125421755</v>
       </c>
       <c r="G18">
-        <v>0.0005931166063799509</v>
+        <v>0.0005931166058674719</v>
       </c>
       <c r="H18">
-        <v>0.2789376142169934</v>
+        <v>0.2789376140963105</v>
       </c>
       <c r="I18">
-        <v>0.2789376142169935</v>
+        <v>0.2789376140963105</v>
       </c>
       <c r="J18">
-        <v>0.2789376142169935</v>
+        <v>0.2789376140963105</v>
       </c>
       <c r="K18">
-        <v>1.00002375201704</v>
+        <v>1.000023752017013</v>
       </c>
       <c r="L18">
-        <v>0.2141429047102356</v>
+        <v>0.2286327818246822</v>
       </c>
       <c r="M18">
-        <v>0.99992012441745</v>
+        <v>0.9999201244174717</v>
       </c>
       <c r="N18">
-        <v>0.2762470355678908</v>
+        <v>0.2907369126554896</v>
       </c>
       <c r="O18">
-        <v>27.89376142169935</v>
+        <v>27.89376140963105</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-6.500172348932934</v>
+        <v>-6.496378232733872</v>
       </c>
       <c r="C19">
-        <v>25.68379770403268</v>
+        <v>25.85386881403488</v>
       </c>
       <c r="D19">
-        <v>6.806918794317235</v>
+        <v>6.806918794582612</v>
       </c>
       <c r="E19">
-        <v>-25.58842470646892</v>
+        <v>-25.75731615729082</v>
       </c>
       <c r="F19">
-        <v>0.3067464453843005</v>
+        <v>0.3105405618487396</v>
       </c>
       <c r="G19">
-        <v>0.09537299756376072</v>
+        <v>0.09655265674405555</v>
       </c>
       <c r="H19">
-        <v>1.3897515706718</v>
+        <v>1.398320006473252</v>
       </c>
       <c r="I19">
-        <v>1.3897515706718</v>
+        <v>1.398320006473252</v>
       </c>
       <c r="J19">
-        <v>1.3897515706718</v>
+        <v>1.398320006473252</v>
       </c>
       <c r="K19">
-        <v>1.000576128978829</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="L19">
-        <v>0.1376636688891406</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0.9999999999999706</v>
       </c>
       <c r="N19">
-        <v>0.831787560552785</v>
+        <v>0.8478386835868799</v>
       </c>
       <c r="O19">
-        <v>92.65010471145332</v>
+        <v>93.2213337648835</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-4.539985798444082</v>
+        <v>-4.53998579844714</v>
       </c>
       <c r="C20">
-        <v>16.51965073576901</v>
+        <v>16.51965073553706</v>
       </c>
       <c r="D20">
-        <v>4.668402632730445</v>
+        <v>4.668402632730174</v>
       </c>
       <c r="E20">
-        <v>-16.4797236278666</v>
+        <v>-16.47972362763569</v>
       </c>
       <c r="F20">
-        <v>0.1284168342863632</v>
+        <v>0.1284168342830334</v>
       </c>
       <c r="G20">
-        <v>0.03992710790241105</v>
+        <v>0.03992710790137011</v>
       </c>
       <c r="H20">
-        <v>0.8992043184316546</v>
+        <v>0.8992043184199848</v>
       </c>
       <c r="I20">
-        <v>0.8992043184316545</v>
+        <v>0.8992043184199849</v>
       </c>
       <c r="J20">
-        <v>0.8992043184316546</v>
+        <v>0.8992043184199849</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.9999999999999706</v>
       </c>
       <c r="L20">
-        <v>0.831787560552785</v>
+        <v>0.8478386835868799</v>
       </c>
       <c r="M20">
-        <v>0.999769900723529</v>
+        <v>0.9997699007235318</v>
       </c>
       <c r="N20">
-        <v>1.281396870480037</v>
+        <v>1.297447993508358</v>
       </c>
       <c r="O20">
-        <v>89.92043184316546</v>
+        <v>89.92043184199849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-2.266932995872164</v>
+        <v>-2.266932995873983</v>
       </c>
       <c r="C21">
-        <v>8.981667874955084</v>
+        <v>8.981667874736829</v>
       </c>
       <c r="D21">
-        <v>2.304476356365376</v>
+        <v>2.304476356365486</v>
       </c>
       <c r="E21">
-        <v>-8.969994967631354</v>
+        <v>-8.969994967413632</v>
       </c>
       <c r="F21">
-        <v>0.03754336049321161</v>
+        <v>0.0375433604915032</v>
       </c>
       <c r="G21">
-        <v>0.01167290732372983</v>
+        <v>0.01167290732319692</v>
       </c>
       <c r="H21">
-        <v>0.4861989044836906</v>
+        <v>0.4861989044726212</v>
       </c>
       <c r="I21">
-        <v>0.4861989044836906</v>
+        <v>0.4861989044726212</v>
       </c>
       <c r="J21">
-        <v>0.4861989044836906</v>
+        <v>0.4861989044726212</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.9999999999999706</v>
       </c>
       <c r="L21">
-        <v>0.831787560552785</v>
+        <v>0.8478386835868799</v>
       </c>
       <c r="M21">
-        <v>0.999779008807556</v>
+        <v>0.9997790088075567</v>
       </c>
       <c r="N21">
-        <v>1.074663944008463</v>
+        <v>1.090715067037111</v>
       </c>
       <c r="O21">
-        <v>48.61989044836906</v>
+        <v>48.61989044726212</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.331597367269496</v>
+        <v>2.331597367269945</v>
       </c>
       <c r="C22">
-        <v>-7.518183616081046</v>
+        <v>-7.518183616067828</v>
       </c>
       <c r="D22">
-        <v>-2.304476356365854</v>
+        <v>-2.304476356366389</v>
       </c>
       <c r="E22">
-        <v>7.526616027102467</v>
+        <v>7.52661602708922</v>
       </c>
       <c r="F22">
-        <v>0.02712101090364172</v>
+        <v>0.02712101090355556</v>
       </c>
       <c r="G22">
-        <v>0.00843241102142045</v>
+        <v>0.008432411021392028</v>
       </c>
       <c r="H22">
-        <v>0.4132380854883588</v>
+        <v>0.4132380854877019</v>
       </c>
       <c r="I22">
-        <v>0.4132380854883588</v>
+        <v>0.4132380854877019</v>
       </c>
       <c r="J22">
-        <v>0.4132380854883588</v>
+        <v>0.4132380854877019</v>
       </c>
       <c r="K22">
-        <v>0.999769900723529</v>
+        <v>0.9997699007235318</v>
       </c>
       <c r="L22">
-        <v>1.281396870480037</v>
+        <v>1.297447993508358</v>
       </c>
       <c r="M22">
-        <v>0.999779008807556</v>
+        <v>0.9997790088075567</v>
       </c>
       <c r="N22">
-        <v>1.074663944008463</v>
+        <v>1.090715067037111</v>
       </c>
       <c r="O22">
-        <v>41.32380854883588</v>
+        <v>41.32380854877019</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-5.935469050672762</v>
+        <v>-5.933941663845513</v>
       </c>
       <c r="C23">
-        <v>18.46821875116892</v>
+        <v>18.80572063637141</v>
       </c>
       <c r="D23">
-        <v>5.981291224359413</v>
+        <v>5.981291224463783</v>
       </c>
       <c r="E23">
-        <v>-18.44168718141381</v>
+        <v>-18.77830469187675</v>
       </c>
       <c r="F23">
-        <v>0.04582217368665109</v>
+        <v>0.04734956061827056</v>
       </c>
       <c r="G23">
-        <v>0.02653156975511095</v>
+        <v>0.02741594449465623</v>
       </c>
       <c r="H23">
-        <v>1.017575131491841</v>
+        <v>1.034395488694974</v>
       </c>
       <c r="I23">
-        <v>1.017575131491841</v>
+        <v>1.034395488694974</v>
       </c>
       <c r="J23">
-        <v>1.017575131491841</v>
+        <v>1.034395488694974</v>
       </c>
       <c r="K23">
-        <v>1.000576128978829</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="L23">
-        <v>0.1376636688891406</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="N23">
-        <v>0.2905789391187074</v>
+        <v>0.304761245419105</v>
       </c>
       <c r="O23">
-        <v>101.7575131491841</v>
+        <v>68.9596992463316</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-5.981291224363484</v>
+        <v>-5.981291224431801</v>
       </c>
       <c r="C24">
-        <v>14.60677528274026</v>
+        <v>14.60677528294933</v>
       </c>
       <c r="D24">
-        <v>6.011662890764954</v>
+        <v>6.011662890834116</v>
       </c>
       <c r="E24">
-        <v>-14.58918973581226</v>
+        <v>-14.58918973602084</v>
       </c>
       <c r="F24">
-        <v>0.03037166640146971</v>
+        <v>0.03037166640231526</v>
       </c>
       <c r="G24">
-        <v>0.01758554692800018</v>
+        <v>0.01758554692849223</v>
       </c>
       <c r="H24">
-        <v>0.8284436084110574</v>
+        <v>0.8284436084225655</v>
       </c>
       <c r="I24">
-        <v>0.8284436084110577</v>
+        <v>0.8284436084225656</v>
       </c>
       <c r="J24">
-        <v>0.8284436084110577</v>
+        <v>0.8284436084225656</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="L24">
-        <v>0.2905789391187074</v>
+        <v>0.304761245419105</v>
       </c>
       <c r="M24">
-        <v>0.9997005556993189</v>
+        <v>0.9997005556993197</v>
       </c>
       <c r="N24">
-        <v>0.4168336494355581</v>
+        <v>0.4310159557377004</v>
       </c>
       <c r="O24">
-        <v>82.84436084110577</v>
+        <v>82.84436084225656</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1549,46 +1549,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-5.611662890763796</v>
+        <v>-5.611662890811962</v>
       </c>
       <c r="C25">
-        <v>10.80078073485826</v>
+        <v>10.80078073493954</v>
       </c>
       <c r="D25">
-        <v>5.629734254146649</v>
+        <v>5.629734254195092</v>
       </c>
       <c r="E25">
-        <v>-10.79031720596849</v>
+        <v>-10.79031720604961</v>
       </c>
       <c r="F25">
-        <v>0.01807136338285265</v>
+        <v>0.01807136338312976</v>
       </c>
       <c r="G25">
-        <v>0.01046352888976543</v>
+        <v>0.01046352888992885</v>
       </c>
       <c r="H25">
-        <v>0.6390341986857522</v>
+        <v>0.6390341986907044</v>
       </c>
       <c r="I25">
-        <v>0.6390341986857522</v>
+        <v>0.6390341986907044</v>
       </c>
       <c r="J25">
-        <v>0.6390341986857522</v>
+        <v>0.6390341986907044</v>
       </c>
       <c r="K25">
-        <v>0.9997005556993189</v>
+        <v>0.9997005556993197</v>
       </c>
       <c r="L25">
-        <v>0.4168336494355581</v>
+        <v>0.4310159557377004</v>
       </c>
       <c r="M25">
-        <v>0.9996237209868073</v>
+        <v>0.9996237209868081</v>
       </c>
       <c r="N25">
-        <v>0.5150375486430605</v>
+        <v>0.5292198549459598</v>
       </c>
       <c r="O25">
-        <v>63.90341986857522</v>
+        <v>63.90341986907045</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1596,46 +1596,46 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-3.825183414232873</v>
+        <v>-3.825183414254111</v>
       </c>
       <c r="C26">
-        <v>-2.943739819848692</v>
+        <v>-2.943739819847815</v>
       </c>
       <c r="D26">
-        <v>3.828025746021567</v>
+        <v>3.828025746042823</v>
       </c>
       <c r="E26">
-        <v>2.945385562903891</v>
+        <v>2.945385562903025</v>
       </c>
       <c r="F26">
-        <v>0.002842331788693642</v>
+        <v>0.002842331788712738</v>
       </c>
       <c r="G26">
-        <v>0.001645743055198601</v>
+        <v>0.001645743055209259</v>
       </c>
       <c r="H26">
-        <v>0.253434670541927</v>
+        <v>0.2534346705427825</v>
       </c>
       <c r="I26">
-        <v>0.2534346705419271</v>
+        <v>0.2534346705427825</v>
       </c>
       <c r="J26">
-        <v>0.2534346705419271</v>
+        <v>0.2534346705427825</v>
       </c>
       <c r="K26">
-        <v>0.9996237209868073</v>
+        <v>0.9996237209868081</v>
       </c>
       <c r="L26">
-        <v>0.5150375486430605</v>
+        <v>0.5292198549459598</v>
       </c>
       <c r="M26">
-        <v>1.000298092425485</v>
+        <v>1.000298092425488</v>
       </c>
       <c r="N26">
-        <v>0.5099457738108349</v>
+        <v>0.5241280801138205</v>
       </c>
       <c r="O26">
-        <v>25.34346705419271</v>
+        <v>25.34346705427825</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1643,46 +1643,46 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-3.428025746023945</v>
+        <v>-3.42802574604053</v>
       </c>
       <c r="C27">
-        <v>6.480484580567661</v>
+        <v>6.480484580673929</v>
       </c>
       <c r="D27">
-        <v>3.434574216149385</v>
+        <v>3.434574216166152</v>
       </c>
       <c r="E27">
-        <v>-6.476692940452321</v>
+        <v>-6.476692940558484</v>
       </c>
       <c r="F27">
-        <v>0.006548470125439909</v>
+        <v>0.006548470125621542</v>
       </c>
       <c r="G27">
-        <v>0.003791640115339945</v>
+        <v>0.00379164011544475</v>
       </c>
       <c r="H27">
-        <v>0.3846790779693574</v>
+        <v>0.3846790779746918</v>
       </c>
       <c r="I27">
-        <v>0.3846790779693574</v>
+        <v>0.3846790779746919</v>
       </c>
       <c r="J27">
-        <v>0.3846790779693574</v>
+        <v>0.3846790779746919</v>
       </c>
       <c r="K27">
-        <v>1.000298092425485</v>
+        <v>1.000298092425488</v>
       </c>
       <c r="L27">
-        <v>0.5099457738108349</v>
+        <v>0.5241280801138205</v>
       </c>
       <c r="M27">
-        <v>1.000259107248877</v>
+        <v>1.000259107248875</v>
       </c>
       <c r="N27">
-        <v>0.5690422831194921</v>
+        <v>0.5832245894232876</v>
       </c>
       <c r="O27">
-        <v>38.46790779693573</v>
+        <v>38.46790779746919</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1690,46 +1690,46 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.318502896599715</v>
+        <v>-2.318502896599909</v>
       </c>
       <c r="C28">
-        <v>3.251698579355373</v>
+        <v>3.251698579307731</v>
       </c>
       <c r="D28">
-        <v>2.320446217421761</v>
+        <v>2.320446217421918</v>
       </c>
       <c r="E28">
-        <v>-3.250573374071589</v>
+        <v>-3.250573374023969</v>
       </c>
       <c r="F28">
-        <v>0.001943320822046068</v>
+        <v>0.001943320822008765</v>
       </c>
       <c r="G28">
-        <v>0.001125205283783792</v>
+        <v>0.001125205283762032</v>
       </c>
       <c r="H28">
-        <v>0.2095563826836719</v>
+        <v>0.2095563826816428</v>
       </c>
       <c r="I28">
-        <v>0.2095563826836719</v>
+        <v>0.2095563826816428</v>
       </c>
       <c r="J28">
-        <v>0.2095563826836719</v>
+        <v>0.2095563826816428</v>
       </c>
       <c r="K28">
-        <v>1.000259107248877</v>
+        <v>1.000259107248875</v>
       </c>
       <c r="L28">
-        <v>0.5690422831194921</v>
+        <v>0.5832245894232876</v>
       </c>
       <c r="M28">
-        <v>1.000312369854601</v>
+        <v>1.000312369854602</v>
       </c>
       <c r="N28">
-        <v>0.6011134447544257</v>
+        <v>0.6152957510578961</v>
       </c>
       <c r="O28">
-        <v>20.95563826836719</v>
+        <v>20.95563826816428</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1737,46 +1737,46 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.920446217422103</v>
+        <v>-1.920446217420151</v>
       </c>
       <c r="C29">
-        <v>-0.7907390674913509</v>
+        <v>-0.790739067506388</v>
       </c>
       <c r="D29">
-        <v>1.920971729534428</v>
+        <v>1.920971729532478</v>
       </c>
       <c r="E29">
-        <v>0.7910433450963519</v>
+        <v>0.79104334511139</v>
       </c>
       <c r="F29">
-        <v>0.0005255121123253215</v>
+        <v>0.0005255121123273199</v>
       </c>
       <c r="G29">
-        <v>0.0003042776050009577</v>
+        <v>0.0003042776050019569</v>
       </c>
       <c r="H29">
-        <v>0.1089732758200634</v>
+        <v>0.108973275820269</v>
       </c>
       <c r="I29">
-        <v>0.1089732758200635</v>
+        <v>0.108973275820269</v>
       </c>
       <c r="J29">
-        <v>0.1089732758200635</v>
+        <v>0.108973275820269</v>
       </c>
       <c r="K29">
-        <v>1.000312369854601</v>
+        <v>1.000312369854602</v>
       </c>
       <c r="L29">
-        <v>0.6011134447544257</v>
+        <v>0.6152957510578961</v>
       </c>
       <c r="M29">
-        <v>1.000602215656172</v>
+        <v>1.000602215656174</v>
       </c>
       <c r="N29">
-        <v>0.6033550870166391</v>
+        <v>0.6175373933199906</v>
       </c>
       <c r="O29">
-        <v>10.89732758200635</v>
+        <v>10.8973275820269</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1784,46 +1784,46 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.520971729533373</v>
+        <v>-1.520971729533853</v>
       </c>
       <c r="C30">
-        <v>17.60724068698259</v>
+        <v>17.6072406869744</v>
       </c>
       <c r="D30">
-        <v>1.559001568045647</v>
+        <v>1.559001568046094</v>
       </c>
       <c r="E30">
-        <v>-17.58522096962558</v>
+        <v>-17.5852209696174</v>
       </c>
       <c r="F30">
-        <v>0.03802983851227371</v>
+        <v>0.03802983851224018</v>
       </c>
       <c r="G30">
-        <v>0.02201971735701136</v>
+        <v>0.0220197173569936</v>
       </c>
       <c r="H30">
-        <v>0.9270237948533437</v>
+        <v>0.9270237948529154</v>
       </c>
       <c r="I30">
-        <v>0.927023794853344</v>
+        <v>0.9270237948529155</v>
       </c>
       <c r="J30">
-        <v>0.927023794853344</v>
+        <v>0.9270237948529155</v>
       </c>
       <c r="K30">
-        <v>1.000602215656172</v>
+        <v>1.000602215656174</v>
       </c>
       <c r="L30">
-        <v>0.6033550870166391</v>
+        <v>0.6175373933199906</v>
       </c>
       <c r="M30">
-        <v>0.9995479719766737</v>
+        <v>0.9995479719766764</v>
       </c>
       <c r="N30">
-        <v>0.7324715426775374</v>
+        <v>0.7466538489808388</v>
       </c>
       <c r="O30">
-        <v>92.70237948533439</v>
+        <v>92.70237948529156</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1831,46 +1831,46 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.6634579455041137</v>
+        <v>-0.6634579455041398</v>
       </c>
       <c r="C31">
-        <v>-5.60303658621847</v>
+        <v>-5.603036586205874</v>
       </c>
       <c r="D31">
-        <v>0.6673423342404757</v>
+        <v>0.6673423342404847</v>
       </c>
       <c r="E31">
-        <v>5.605285692326345</v>
+        <v>5.60528569231374</v>
       </c>
       <c r="F31">
-        <v>0.003884388736361988</v>
+        <v>0.00388438873634489</v>
       </c>
       <c r="G31">
-        <v>0.002249106107875321</v>
+        <v>0.002249106107865551</v>
       </c>
       <c r="H31">
-        <v>0.2962715736100978</v>
+        <v>0.2962715736094403</v>
       </c>
       <c r="I31">
-        <v>0.2962715736100977</v>
+        <v>0.2962715736094403</v>
       </c>
       <c r="J31">
-        <v>0.2962715736100978</v>
+        <v>0.2962715736094403</v>
       </c>
       <c r="K31">
-        <v>0.9995479719766737</v>
+        <v>0.9995479719766764</v>
       </c>
       <c r="L31">
-        <v>0.7324715426775374</v>
+        <v>0.7466538489808388</v>
       </c>
       <c r="M31">
-        <v>1.000024771832484</v>
+        <v>1.000024771832486</v>
       </c>
       <c r="N31">
-        <v>0.6960026794376041</v>
+        <v>0.7101849857409915</v>
       </c>
       <c r="O31">
-        <v>29.62715736100978</v>
+        <v>29.62715736094403</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1878,46 +1878,46 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.404550839909205</v>
+        <v>-1.40455083991754</v>
       </c>
       <c r="C32">
-        <v>5.688440523458656</v>
+        <v>5.688440523441455</v>
       </c>
       <c r="D32">
-        <v>1.415800901765198</v>
+        <v>1.415800901773476</v>
       </c>
       <c r="E32">
-        <v>-5.685706163001495</v>
+        <v>-5.685706162984307</v>
       </c>
       <c r="F32">
-        <v>0.01125006185599275</v>
+        <v>0.01125006185593591</v>
       </c>
       <c r="G32">
-        <v>0.002734360457161245</v>
+        <v>0.002734360457147922</v>
       </c>
       <c r="H32">
-        <v>0.307648010916763</v>
+        <v>0.3076480109159908</v>
       </c>
       <c r="I32">
-        <v>0.307648010916763</v>
+        <v>0.3076480109159908</v>
       </c>
       <c r="J32">
-        <v>0.307648010916763</v>
+        <v>0.3076480109159908</v>
       </c>
       <c r="K32">
-        <v>0.9996237209868073</v>
+        <v>0.9996237209868081</v>
       </c>
       <c r="L32">
-        <v>0.5150375486430605</v>
+        <v>0.5292198549459598</v>
       </c>
       <c r="M32">
-        <v>0.9996328653931441</v>
+        <v>0.9996328653931489</v>
       </c>
       <c r="N32">
-        <v>0.6282489841363084</v>
+        <v>0.6424312904389202</v>
       </c>
       <c r="O32">
-        <v>30.7648010916763</v>
+        <v>30.76480109159908</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1925,46 +1925,46 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.3644400132368221</v>
+        <v>-0.3644400132364724</v>
       </c>
       <c r="C33">
-        <v>2.257636421358784</v>
+        <v>2.257636421406826</v>
       </c>
       <c r="D33">
-        <v>0.3661537298342754</v>
+        <v>0.3661537298339967</v>
       </c>
       <c r="E33">
-        <v>-2.257219897524618</v>
+        <v>-2.257219897572643</v>
       </c>
       <c r="F33">
-        <v>0.00171371659745323</v>
+        <v>0.00171371659752434</v>
       </c>
       <c r="G33">
-        <v>0.0004165238341653499</v>
+        <v>0.0004165238341826694</v>
       </c>
       <c r="H33">
-        <v>0.1200732201570308</v>
+        <v>0.1200732201595175</v>
       </c>
       <c r="I33">
-        <v>0.1200732201570308</v>
+        <v>0.1200732201595175</v>
       </c>
       <c r="J33">
-        <v>0.1200732201570308</v>
+        <v>0.1200732201595175</v>
       </c>
       <c r="K33">
-        <v>0.9996328653931441</v>
+        <v>0.9996328653931489</v>
       </c>
       <c r="L33">
-        <v>0.6282489841363084</v>
+        <v>0.6424312904389202</v>
       </c>
       <c r="M33">
-        <v>0.999572795205926</v>
+        <v>0.9995727952059271</v>
       </c>
       <c r="N33">
-        <v>0.6723019875419181</v>
+        <v>0.6864842938454327</v>
       </c>
       <c r="O33">
-        <v>12.00732201570308</v>
+        <v>12.00732201595175</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1972,46 +1972,46 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.3994223510882693</v>
+        <v>-0.399422351088088</v>
       </c>
       <c r="C34">
-        <v>0.9973733723494222</v>
+        <v>0.9973733723642386</v>
       </c>
       <c r="D34">
-        <v>0.4000000000004276</v>
+        <v>0.400000000000261</v>
       </c>
       <c r="E34">
-        <v>-0.997277617883545</v>
+        <v>-0.997277617898359</v>
       </c>
       <c r="F34">
-        <v>0.000577648912158335</v>
+        <v>0.00057764891217299</v>
       </c>
       <c r="G34">
-        <v>9.575446587728464e-05</v>
+        <v>9.575446587961611e-05</v>
       </c>
       <c r="H34">
-        <v>0.05641441331568937</v>
+        <v>0.056414413316408</v>
       </c>
       <c r="I34">
-        <v>0.05641441331568937</v>
+        <v>0.056414413316408</v>
       </c>
       <c r="J34">
-        <v>0.05641441331568937</v>
+        <v>0.056414413316408</v>
       </c>
       <c r="K34">
-        <v>0.999572795205926</v>
+        <v>0.9995727952059271</v>
       </c>
       <c r="L34">
-        <v>0.6723019875419181</v>
+        <v>0.6864842938454327</v>
       </c>
       <c r="M34">
-        <v>0.9996900346867544</v>
+        <v>0.9996900346867543</v>
       </c>
       <c r="N34">
-        <v>0.7027944026973075</v>
+        <v>0.7169767090012458</v>
       </c>
       <c r="O34">
-        <v>5.641441331568937</v>
+        <v>5.6414413316408</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2019,46 +2019,46 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.03326862125349522</v>
+        <v>0.03326862125221529</v>
       </c>
       <c r="C35">
-        <v>-8.153416398053253</v>
+        <v>-8.153416398043381</v>
       </c>
       <c r="D35">
-        <v>1.862607290625817e-13</v>
+        <v>1.385558334732195e-12</v>
       </c>
       <c r="E35">
-        <v>8.158931199503693</v>
+        <v>8.158931199493807</v>
       </c>
       <c r="F35">
-        <v>0.03326862125368148</v>
+        <v>0.03326862125360085</v>
       </c>
       <c r="G35">
-        <v>0.005514801450440032</v>
+        <v>0.005514801450425821</v>
       </c>
       <c r="H35">
-        <v>0.4281298390131971</v>
+        <v>0.4281298390126781</v>
       </c>
       <c r="I35">
-        <v>0.4281298390131972</v>
+        <v>0.4281298390126781</v>
       </c>
       <c r="J35">
-        <v>0.4281298390131972</v>
+        <v>0.4281298390126781</v>
       </c>
       <c r="K35">
-        <v>0.999572795205926</v>
+        <v>0.9995727952059271</v>
       </c>
       <c r="L35">
-        <v>0.6723019875419181</v>
+        <v>0.6864842938454327</v>
       </c>
       <c r="M35">
-        <v>1.000240558966567</v>
+        <v>1.000240558966568</v>
       </c>
       <c r="N35">
-        <v>0.4385176551170139</v>
+        <v>0.4526999614208178</v>
       </c>
       <c r="O35">
-        <v>42.81298390131972</v>
+        <v>42.81298390126781</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2066,46 +2066,46 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.6513608885275266</v>
+        <v>-0.6513608885289427</v>
       </c>
       <c r="C36">
-        <v>-9.837729918413366</v>
+        <v>-9.837729918344593</v>
       </c>
       <c r="D36">
-        <v>0.6999999999998459</v>
+        <v>0.7000000000005853</v>
       </c>
       <c r="E36">
-        <v>9.845792622318358</v>
+        <v>9.845792622249471</v>
       </c>
       <c r="F36">
-        <v>0.04863911147231925</v>
+        <v>0.04863911147164257</v>
       </c>
       <c r="G36">
-        <v>0.008062703904991864</v>
+        <v>0.008062703904878177</v>
       </c>
       <c r="H36">
-        <v>0.5176675147535718</v>
+        <v>0.517667514749971</v>
       </c>
       <c r="I36">
-        <v>0.5176675147535716</v>
+        <v>0.5176675147499707</v>
       </c>
       <c r="J36">
-        <v>0.5176675147535718</v>
+        <v>0.517667514749971</v>
       </c>
       <c r="K36">
-        <v>0.9996328653931441</v>
+        <v>0.9996328653931489</v>
       </c>
       <c r="L36">
-        <v>0.6282489841363084</v>
+        <v>0.6424312904389202</v>
       </c>
       <c r="M36">
         <v>1.000786197009713</v>
       </c>
       <c r="N36">
-        <v>0.3496229673028013</v>
+        <v>0.36380527360739</v>
       </c>
       <c r="O36">
-        <v>51.76675147535718</v>
+        <v>51.76675147499709</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2113,46 +2113,46 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.7160713195514102</v>
+        <v>-0.716071319558527</v>
       </c>
       <c r="C37">
-        <v>1.065974707232068</v>
+        <v>1.065974707229487</v>
       </c>
       <c r="D37">
-        <v>0.7166110184686434</v>
+        <v>0.7166110184757618</v>
       </c>
       <c r="E37">
-        <v>-1.065843531830817</v>
+        <v>-1.065843531828237</v>
       </c>
       <c r="F37">
-        <v>0.0005396989172331557</v>
+        <v>0.000539698917234821</v>
       </c>
       <c r="G37">
         <v>0.0001311754012507382</v>
       </c>
       <c r="H37">
-        <v>0.06738332383670627</v>
+        <v>0.06738332383680226</v>
       </c>
       <c r="I37">
-        <v>0.06738332383670627</v>
+        <v>0.06738332383680226</v>
       </c>
       <c r="J37">
-        <v>0.06738332383670627</v>
+        <v>0.06738332383680226</v>
       </c>
       <c r="K37">
-        <v>1.000259107248877</v>
+        <v>1.000259107248875</v>
       </c>
       <c r="L37">
-        <v>0.5690422831194921</v>
+        <v>0.5832245894232876</v>
       </c>
       <c r="M37">
         <v>1.000408788243711</v>
       </c>
       <c r="N37">
-        <v>0.592291089542346</v>
+        <v>0.6064733958461273</v>
       </c>
       <c r="O37">
-        <v>6.738332383670627</v>
+        <v>6.738332383680226</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2160,46 +2160,46 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.00972683371379361</v>
+        <v>0.009726833713500981</v>
       </c>
       <c r="C38">
-        <v>-0.8786425417165107</v>
+        <v>-0.8786425417026283</v>
       </c>
       <c r="D38">
-        <v>-0.009474216616920364</v>
+        <v>-0.009474216616635731</v>
       </c>
       <c r="E38">
-        <v>0.8787039410411843</v>
+        <v>0.8787039410272999</v>
       </c>
       <c r="F38">
-        <v>0.0002526170968732457</v>
+        <v>0.0002526170968652503</v>
       </c>
       <c r="G38">
-        <v>6.139932467363884e-05</v>
+        <v>6.139932467152942e-05</v>
       </c>
       <c r="H38">
-        <v>0.04610075375934217</v>
+        <v>0.04610075375861367</v>
       </c>
       <c r="I38">
-        <v>0.04610075375934217</v>
+        <v>0.04610075375861369</v>
       </c>
       <c r="J38">
-        <v>0.04610075375934217</v>
+        <v>0.04610075375861369</v>
       </c>
       <c r="K38">
         <v>1.000408788243711</v>
       </c>
       <c r="L38">
-        <v>0.592291089542346</v>
+        <v>0.6064733958461273</v>
       </c>
       <c r="M38">
-        <v>1.000475545840635</v>
+        <v>1.000475545840634</v>
       </c>
       <c r="N38">
-        <v>0.5757768749175435</v>
+        <v>0.589959181221587</v>
       </c>
       <c r="O38">
-        <v>4.610075375934216</v>
+        <v>4.610075375861369</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2207,46 +2207,46 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.3263378521824206</v>
+        <v>-0.3263378521833105</v>
       </c>
       <c r="C39">
-        <v>12.13819738167494</v>
+        <v>12.13819738171084</v>
       </c>
       <c r="D39">
-        <v>0.3999999999996343</v>
+        <v>0.4000000000009601</v>
       </c>
       <c r="E39">
-        <v>-12.12598671275279</v>
+        <v>-12.12598671278862</v>
       </c>
       <c r="F39">
-        <v>0.0736621478172137</v>
+        <v>0.07366214781764968</v>
       </c>
       <c r="G39">
-        <v>0.01221066892214928</v>
+        <v>0.01221066892222034</v>
       </c>
       <c r="H39">
-        <v>0.6370599233210299</v>
+        <v>0.6370599233229138</v>
       </c>
       <c r="I39">
-        <v>0.6370599233210297</v>
+        <v>0.6370599233229137</v>
       </c>
       <c r="J39">
-        <v>0.6370599233210299</v>
+        <v>0.6370599233229138</v>
       </c>
       <c r="K39">
         <v>1.000408788243711</v>
       </c>
       <c r="L39">
-        <v>0.592291089542346</v>
+        <v>0.6064733958461273</v>
       </c>
       <c r="M39">
-        <v>0.9995848131452152</v>
+        <v>0.9995848131452133</v>
       </c>
       <c r="N39">
-        <v>0.9415847879895435</v>
+        <v>0.9557670942943588</v>
       </c>
       <c r="O39">
-        <v>63.70599233210299</v>
+        <v>63.70599233229138</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2254,46 +2254,46 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.009474216616474469</v>
+        <v>0.009474216616440996</v>
       </c>
       <c r="C40">
-        <v>4.355003555058634</v>
+        <v>4.355003555053651</v>
       </c>
       <c r="D40">
-        <v>6.204758928873844e-14</v>
+        <v>7.373962551682212e-14</v>
       </c>
       <c r="E40">
-        <v>-4.353433053439698</v>
+        <v>-4.353433053434719</v>
       </c>
       <c r="F40">
-        <v>0.009474216616536517</v>
+        <v>0.009474216616514736</v>
       </c>
       <c r="G40">
-        <v>0.001570501618935793</v>
+        <v>0.001570501618932241</v>
       </c>
       <c r="H40">
-        <v>0.2284702995991288</v>
+        <v>0.2284702995988675</v>
       </c>
       <c r="I40">
-        <v>0.2284702995991288</v>
+        <v>0.2284702995988675</v>
       </c>
       <c r="J40">
-        <v>0.2284702995991288</v>
+        <v>0.2284702995988675</v>
       </c>
       <c r="K40">
-        <v>1.000475545840635</v>
+        <v>1.000475545840634</v>
       </c>
       <c r="L40">
-        <v>0.5757768749175435</v>
+        <v>0.589959181221587</v>
       </c>
       <c r="M40">
         <v>1.00011238767836</v>
       </c>
       <c r="N40">
-        <v>0.70042241495075</v>
+        <v>0.7146047212546496</v>
       </c>
       <c r="O40">
-        <v>22.84702995991288</v>
+        <v>22.84702995988675</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2301,46 +2301,46 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.4955436225394997</v>
+        <v>-0.495543622539576</v>
       </c>
       <c r="C41">
-        <v>2.94261591911004</v>
+        <v>2.9426159191394</v>
       </c>
       <c r="D41">
-        <v>0.4999999999998783</v>
+        <v>0.5000000000000409</v>
       </c>
       <c r="E41">
-        <v>-2.941877203889628</v>
+        <v>-2.941877203918974</v>
       </c>
       <c r="F41">
-        <v>0.00445637746037858</v>
+        <v>0.0044563774604649</v>
       </c>
       <c r="G41">
-        <v>0.0007387152204119118</v>
+        <v>0.0007387152204261227</v>
       </c>
       <c r="H41">
-        <v>0.1566928142261385</v>
+        <v>0.156692814227659</v>
       </c>
       <c r="I41">
-        <v>0.1566928142261385</v>
+        <v>0.1566928142276591</v>
       </c>
       <c r="J41">
-        <v>0.1566928142261385</v>
+        <v>0.1566928142276591</v>
       </c>
       <c r="K41">
-        <v>0.9995479719766737</v>
+        <v>0.9995479719766764</v>
       </c>
       <c r="L41">
-        <v>0.7324715426775374</v>
+        <v>0.7466538489808388</v>
       </c>
       <c r="M41">
-        <v>0.9995529982161122</v>
+        <v>0.9995529982161124</v>
       </c>
       <c r="N41">
-        <v>0.8192039603424677</v>
+        <v>0.8333862666466098</v>
       </c>
       <c r="O41">
-        <v>15.66928142261385</v>
+        <v>15.66928142276591</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2348,46 +2348,46 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.2673423342419893</v>
+        <v>-0.267342334241894</v>
       </c>
       <c r="C42">
-        <v>8.077500601434007</v>
+        <v>8.077500601465275</v>
       </c>
       <c r="D42">
-        <v>0.3000000000003699</v>
+        <v>0.3000000000005267</v>
       </c>
       <c r="E42">
-        <v>-8.072087075543678</v>
+        <v>-8.072087075574903</v>
       </c>
       <c r="F42">
-        <v>0.03265766575838058</v>
+        <v>0.03265766575863271</v>
       </c>
       <c r="G42">
-        <v>0.005413525890329396</v>
+        <v>0.005413525890372028</v>
       </c>
       <c r="H42">
-        <v>0.4241804671501337</v>
+        <v>0.4241804671517731</v>
       </c>
       <c r="I42">
-        <v>0.4241804671501337</v>
+        <v>0.4241804671517731</v>
       </c>
       <c r="J42">
-        <v>0.4241804671501337</v>
+        <v>0.4241804671517731</v>
       </c>
       <c r="K42">
-        <v>1.000024771832484</v>
+        <v>1.000024771832486</v>
       </c>
       <c r="L42">
-        <v>0.6960026794376041</v>
+        <v>0.7101849857409915</v>
       </c>
       <c r="M42">
-        <v>0.9994972100534636</v>
+        <v>0.9994972100534627</v>
       </c>
       <c r="N42">
-        <v>0.9287913587528356</v>
+        <v>0.9429736650571167</v>
       </c>
       <c r="O42">
-        <v>42.41804671501338</v>
+        <v>42.41804671517731</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2395,46 +2395,46 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6714392758084612</v>
+        <v>-0.2277990239756041</v>
       </c>
       <c r="C43">
-        <v>-51.31841112891458</v>
+        <v>-28.60598678143997</v>
       </c>
       <c r="D43">
-        <v>-0.5480099290399546</v>
+        <v>0.266146704058307</v>
       </c>
       <c r="E43">
-        <v>51.38180200330435</v>
+        <v>28.62568139244541</v>
       </c>
       <c r="F43">
-        <v>0.1234293467685066</v>
+        <v>0.0383476800827029</v>
       </c>
       <c r="G43">
-        <v>0.06339087438976776</v>
+        <v>0.01969461100543768</v>
       </c>
       <c r="H43">
-        <v>2.693748579411924</v>
+        <v>1.501472529868026</v>
       </c>
       <c r="I43">
-        <v>2.693748579411924</v>
+        <v>1.501472529868026</v>
       </c>
       <c r="J43">
-        <v>2.693748579411924</v>
+        <v>1.501472529868026</v>
       </c>
       <c r="K43">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000008</v>
       </c>
       <c r="L43">
-        <v>0.197406454793766</v>
+        <v>0.2178213278370268</v>
       </c>
       <c r="M43">
-        <v>1.00120649839424</v>
+        <v>1.000700000000009</v>
       </c>
       <c r="N43">
-        <v>0.05886530115692676</v>
+        <v>0.1413860833182438</v>
       </c>
       <c r="O43">
-        <v>134.6874289705962</v>
+        <v>75.07362649340131</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2442,46 +2442,46 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.3938314881977116</v>
+        <v>-0.08917600387307435</v>
       </c>
       <c r="C44">
-        <v>20.96509017918434</v>
+        <v>12.65537266108271</v>
       </c>
       <c r="D44">
-        <v>-0.3732774544331628</v>
+        <v>0.09667082597984057</v>
       </c>
       <c r="E44">
-        <v>-20.95453403344847</v>
+        <v>-12.65152346849455</v>
       </c>
       <c r="F44">
-        <v>0.02055403376454884</v>
+        <v>0.007494822106766219</v>
       </c>
       <c r="G44">
-        <v>0.01055614573586894</v>
+        <v>0.003849192588168293</v>
       </c>
       <c r="H44">
-        <v>1.099249751217939</v>
+        <v>0.6637866409392121</v>
       </c>
       <c r="I44">
-        <v>1.099249751217938</v>
+        <v>0.6637866409392121</v>
       </c>
       <c r="J44">
-        <v>1.099249751217939</v>
+        <v>0.6637866409392121</v>
       </c>
       <c r="K44">
-        <v>1.00120649839424</v>
+        <v>1.000700000000009</v>
       </c>
       <c r="L44">
-        <v>0.05886530115692676</v>
+        <v>0.1413860833182438</v>
       </c>
       <c r="M44">
-        <v>1.000684597441013</v>
+        <v>1.000399999999992</v>
       </c>
       <c r="N44">
-        <v>0.114505155060212</v>
+        <v>0.1754493700758464</v>
       </c>
       <c r="O44">
-        <v>54.96248756089693</v>
+        <v>66.37866409392122</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2489,46 +2489,46 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.3907774544382745</v>
+        <v>-0.06167082598918013</v>
       </c>
       <c r="C45">
-        <v>35.97690197399923</v>
+        <v>-4.036070779873077</v>
       </c>
       <c r="D45">
-        <v>-0.3302012553867018</v>
+        <v>0.06243372887106917</v>
       </c>
       <c r="E45">
-        <v>-35.94579123473324</v>
+        <v>4.036462591723528</v>
       </c>
       <c r="F45">
-        <v>0.06057619905157274</v>
+        <v>0.0007629028818890438</v>
       </c>
       <c r="G45">
-        <v>0.03111073926599062</v>
+        <v>0.0003918118504513401</v>
       </c>
       <c r="H45">
-        <v>1.88711711257278</v>
+        <v>0.2117787940437947</v>
       </c>
       <c r="I45">
-        <v>1.88711711257278</v>
+        <v>0.2117787940437946</v>
       </c>
       <c r="J45">
-        <v>1.88711711257278</v>
+        <v>0.2117787940437947</v>
       </c>
       <c r="K45">
-        <v>1.000684597441013</v>
+        <v>1.000399999999992</v>
       </c>
       <c r="L45">
-        <v>0.114505155060212</v>
+        <v>0.1754493700758464</v>
       </c>
       <c r="M45">
-        <v>0.999802469988175</v>
+        <v>1.000500000000009</v>
       </c>
       <c r="N45">
-        <v>0.2105122637898938</v>
+        <v>0.1647078246772885</v>
       </c>
       <c r="O45">
-        <v>94.35585562863901</v>
+        <v>21.17787940437946</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2536,46 +2536,46 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.3452012553817703</v>
+        <v>-0.03243372886584134</v>
       </c>
       <c r="C46">
-        <v>17.30660770792825</v>
+        <v>12.54223486772951</v>
       </c>
       <c r="D46">
-        <v>-0.3311548264144629</v>
+        <v>0.03979777100826205</v>
       </c>
       <c r="E46">
-        <v>-17.29939373947096</v>
+        <v>-12.53845284114773</v>
       </c>
       <c r="F46">
-        <v>0.01404642896730735</v>
+        <v>0.007364042142420708</v>
       </c>
       <c r="G46">
-        <v>0.00721396845728961</v>
+        <v>0.003782026581783171</v>
       </c>
       <c r="H46">
-        <v>0.9087215071843954</v>
+        <v>0.6579698231743947</v>
       </c>
       <c r="I46">
-        <v>0.9087215071843953</v>
+        <v>0.6579698231743946</v>
       </c>
       <c r="J46">
-        <v>0.9087215071843954</v>
+        <v>0.6579698231743947</v>
       </c>
       <c r="K46">
-        <v>0.999802469988175</v>
+        <v>1.000500000000009</v>
       </c>
       <c r="L46">
-        <v>0.2105122637898938</v>
+        <v>0.1647078246772885</v>
       </c>
       <c r="M46">
-        <v>0.9993700281922667</v>
+        <v>1.000199999999993</v>
       </c>
       <c r="N46">
-        <v>0.2565400347464802</v>
+        <v>0.1984030011424019</v>
       </c>
       <c r="O46">
-        <v>45.43607535921977</v>
+        <v>65.79698231743947</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2583,46 +2583,46 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.351154826426697</v>
+        <v>0.0002022289742660546</v>
       </c>
       <c r="C47">
-        <v>-61.24389257307659</v>
+        <v>2.077828520668886</v>
       </c>
       <c r="D47">
-        <v>-0.1751660803195484</v>
+        <v>9.113165083673991e-12</v>
       </c>
       <c r="E47">
-        <v>61.33427691675633</v>
+        <v>-2.077724659857669</v>
       </c>
       <c r="F47">
-        <v>0.1759887461071486</v>
+        <v>0.0002022289833792197</v>
       </c>
       <c r="G47">
-        <v>0.09038434367973736</v>
+        <v>0.0001038608112167161</v>
       </c>
       <c r="H47">
-        <v>3.216549888744334</v>
+        <v>0.1090359074930357</v>
       </c>
       <c r="I47">
-        <v>3.216549888744334</v>
+        <v>0.1090359074930358</v>
       </c>
       <c r="J47">
-        <v>3.216549888744334</v>
+        <v>0.1090359074930358</v>
       </c>
       <c r="K47">
-        <v>0.9993700281922667</v>
+        <v>1.000199999999993</v>
       </c>
       <c r="L47">
-        <v>0.2565400347464802</v>
+        <v>0.1984030011424019</v>
       </c>
       <c r="M47">
-        <v>1.00083253870058</v>
+        <v>1.000149999999993</v>
       </c>
       <c r="N47">
-        <v>0.09165814124140363</v>
+        <v>0.2039794320610423</v>
       </c>
       <c r="O47">
-        <v>160.8274944372167</v>
+        <v>10.90359074930358</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2630,46 +2630,46 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.195166080312884</v>
+        <v>-0.1769707002065532</v>
       </c>
       <c r="C48">
-        <v>67.42327842919846</v>
+        <v>28.24063457384935</v>
       </c>
       <c r="D48">
-        <v>0.01750000000234497</v>
+        <v>0.2142919213653433</v>
       </c>
       <c r="E48">
-        <v>-67.31405733116003</v>
+        <v>-28.2214671318715</v>
       </c>
       <c r="F48">
-        <v>0.2126660803152289</v>
+        <v>0.03732122115879005</v>
       </c>
       <c r="G48">
-        <v>0.1092210980384323</v>
+        <v>0.01916744197785292</v>
       </c>
       <c r="H48">
-        <v>3.535875431700405</v>
+        <v>1.48124114106278</v>
       </c>
       <c r="I48">
-        <v>3.535875431700405</v>
+        <v>1.48124114106278</v>
       </c>
       <c r="J48">
-        <v>3.535875431700405</v>
+        <v>1.48124114106278</v>
       </c>
       <c r="K48">
-        <v>1.00083253870058</v>
+        <v>1.000700000000009</v>
       </c>
       <c r="L48">
-        <v>0.09165814124140363</v>
+        <v>0.1413860833182438</v>
       </c>
       <c r="M48">
-        <v>0.9992071060924113</v>
+        <v>1.000029999999998</v>
       </c>
       <c r="N48">
-        <v>0.2724037943702069</v>
+        <v>0.217396558005239</v>
       </c>
       <c r="O48">
-        <v>176.7937715850203</v>
+        <v>74.06205705313901</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2677,46 +2677,46 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1541784408299957</v>
+        <v>-0.1692919213589981</v>
       </c>
       <c r="C49">
-        <v>51.67344316284451</v>
+        <v>-0.7507385494850504</v>
       </c>
       <c r="D49">
-        <v>-0.02935704432722491</v>
+        <v>0.1693196730844886</v>
       </c>
       <c r="E49">
-        <v>-51.60933735920851</v>
+        <v>0.7507528022230801</v>
       </c>
       <c r="F49">
-        <v>0.1248213965027708</v>
+        <v>2.775172549046578e-05</v>
       </c>
       <c r="G49">
-        <v>0.0641058036360036</v>
+        <v>1.42527380296853e-05</v>
       </c>
       <c r="H49">
-        <v>2.708896186286234</v>
+        <v>0.04039176571813916</v>
       </c>
       <c r="I49">
-        <v>2.708896186286234</v>
+        <v>0.04039176571813916</v>
       </c>
       <c r="J49">
-        <v>2.708896186286234</v>
+        <v>0.04039176571813916</v>
       </c>
       <c r="K49">
-        <v>1.00120649839424</v>
+        <v>1.000029999999998</v>
       </c>
       <c r="L49">
-        <v>0.05886530115692676</v>
+        <v>0.217396558005239</v>
       </c>
       <c r="M49">
-        <v>0.9999601175541516</v>
+        <v>1.000056000000001</v>
       </c>
       <c r="N49">
-        <v>0.1972269706518597</v>
+        <v>0.2156145239100115</v>
       </c>
       <c r="O49">
-        <v>135.4448093143117</v>
+        <v>4.039176571813916</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2724,46 +2724,46 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.05185704433013252</v>
+        <v>-0.1043196730943524</v>
       </c>
       <c r="C50">
-        <v>-18.79678146220892</v>
+        <v>-0.5864005799948298</v>
       </c>
       <c r="D50">
-        <v>-0.03529924478468406</v>
+        <v>0.1043362945590526</v>
       </c>
       <c r="E50">
-        <v>18.80528522098782</v>
+        <v>0.5864091164507744</v>
       </c>
       <c r="F50">
-        <v>0.01655779954544846</v>
+        <v>1.662146470023107e-05</v>
       </c>
       <c r="G50">
-        <v>0.008503758778900306</v>
+        <v>8.536455944674337e-06</v>
       </c>
       <c r="H50">
-        <v>0.986618270222826</v>
+        <v>0.03125953324329796</v>
       </c>
       <c r="I50">
-        <v>0.9866182702228262</v>
+        <v>0.03125953324329796</v>
       </c>
       <c r="J50">
-        <v>0.9866182702228262</v>
+        <v>0.03125953324329796</v>
       </c>
       <c r="K50">
-        <v>0.9999601175541516</v>
+        <v>1.000056000000001</v>
       </c>
       <c r="L50">
-        <v>0.1972269706518597</v>
+        <v>0.2156145239100115</v>
       </c>
       <c r="M50">
-        <v>1.00041045990427</v>
+        <v>1.000075000000016</v>
       </c>
       <c r="N50">
-        <v>0.1467076067571122</v>
+        <v>0.2141841576576106</v>
       </c>
       <c r="O50">
-        <v>49.33091351114131</v>
+        <v>3.125953324329796</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2771,46 +2771,46 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.06779924478754995</v>
+        <v>-0.08933629455742564</v>
       </c>
       <c r="C51">
-        <v>12.34565413426045</v>
+        <v>-0.5532598600507843</v>
       </c>
       <c r="D51">
-        <v>-0.06066278947684596</v>
+        <v>0.08934890767686497</v>
       </c>
       <c r="E51">
-        <v>-12.3419889917799</v>
+        <v>0.5532663378997803</v>
       </c>
       <c r="F51">
-        <v>0.00713645531070399</v>
+        <v>1.261311943932808e-05</v>
       </c>
       <c r="G51">
-        <v>0.003665142480556938</v>
+        <v>6.477848995989355e-06</v>
       </c>
       <c r="H51">
-        <v>0.6477227013669864</v>
+        <v>0.02941253738183056</v>
       </c>
       <c r="I51">
-        <v>0.6477227013669863</v>
+        <v>0.02941253738183055</v>
       </c>
       <c r="J51">
-        <v>0.6477227013669864</v>
+        <v>0.02941253738183056</v>
       </c>
       <c r="K51">
-        <v>1.00041045990427</v>
+        <v>1.000075000000016</v>
       </c>
       <c r="L51">
-        <v>0.1467076067571122</v>
+        <v>0.2141841576576106</v>
       </c>
       <c r="M51">
-        <v>1.000110460370631</v>
+        <v>1.000090000000007</v>
       </c>
       <c r="N51">
-        <v>0.1797431626447225</v>
+        <v>0.2130167193517191</v>
       </c>
       <c r="O51">
-        <v>32.38613506834932</v>
+        <v>2.941253738183056</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2818,46 +2818,46 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.06816278949035562</v>
+        <v>-0.03934890767521482</v>
       </c>
       <c r="C52">
-        <v>20.85091800997677</v>
+        <v>3.401625977619681</v>
       </c>
       <c r="D52">
-        <v>-0.05070416749988503</v>
+        <v>0.03989109673176494</v>
       </c>
       <c r="E52">
-        <v>-20.84195160658414</v>
+        <v>-3.401347520030143</v>
       </c>
       <c r="F52">
-        <v>0.01745862199047059</v>
+        <v>0.0005421890565501172</v>
       </c>
       <c r="G52">
-        <v>0.008966403392633993</v>
+        <v>0.0002784575895375951</v>
       </c>
       <c r="H52">
-        <v>1.094274348832357</v>
+        <v>0.1785349379730027</v>
       </c>
       <c r="I52">
-        <v>1.094274348832357</v>
+        <v>0.1785349379730027</v>
       </c>
       <c r="J52">
-        <v>1.094274348832357</v>
+        <v>0.1785349379730027</v>
       </c>
       <c r="K52">
-        <v>1.000110460370631</v>
+        <v>1.000090000000007</v>
       </c>
       <c r="L52">
-        <v>0.1797431626447225</v>
+        <v>0.2130167193517191</v>
       </c>
       <c r="M52">
-        <v>0.9996780051435382</v>
+        <v>1.000010000000006</v>
       </c>
       <c r="N52">
-        <v>0.2276569936405029</v>
+        <v>0.2222029201407074</v>
       </c>
       <c r="O52">
-        <v>72.95162325549049</v>
+        <v>17.85349379730027</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2865,46 +2865,46 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.07570416750521855</v>
+        <v>-0.03383512155177661</v>
       </c>
       <c r="C53">
-        <v>-28.38316423113979</v>
+        <v>-0.6404958274269137</v>
       </c>
       <c r="D53">
-        <v>-0.03792937176581833</v>
+        <v>0.03385439821594952</v>
       </c>
       <c r="E53">
-        <v>28.40256462006274</v>
+        <v>0.6405057275408592</v>
       </c>
       <c r="F53">
-        <v>0.03777479573940022</v>
+        <v>1.927666417290974e-05</v>
       </c>
       <c r="G53">
-        <v>0.01940038892294993</v>
+        <v>9.900113945526812e-06</v>
       </c>
       <c r="H53">
-        <v>1.490214914119615</v>
+        <v>0.03366385006890937</v>
       </c>
       <c r="I53">
-        <v>1.490214914119615</v>
+        <v>0.03366385006890937</v>
       </c>
       <c r="J53">
-        <v>1.490214914119615</v>
+        <v>0.03366385006890937</v>
       </c>
       <c r="K53">
-        <v>0.9996780051435382</v>
+        <v>1.000010000000006</v>
       </c>
       <c r="L53">
-        <v>0.2276569936405029</v>
+        <v>0.2222029201407074</v>
       </c>
       <c r="M53">
-        <v>1.00035863622865</v>
+        <v>1.00002699999999</v>
       </c>
       <c r="N53">
-        <v>0.1513507806994151</v>
+        <v>0.2205300004574725</v>
       </c>
       <c r="O53">
-        <v>149.0214914119615</v>
+        <v>3.366385006890937</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2912,46 +2912,46 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.03792645816995866</v>
+        <v>-0.02160439820116735</v>
       </c>
       <c r="C54">
-        <v>13.64954581262493</v>
+        <v>-12.1263625892652</v>
       </c>
       <c r="D54">
-        <v>-0.02920225057983487</v>
+        <v>0.02849467573576264</v>
       </c>
       <c r="E54">
-        <v>-13.64506523193667</v>
+        <v>12.12990129970272</v>
       </c>
       <c r="F54">
-        <v>0.008724207590123788</v>
+        <v>0.006890277534595292</v>
       </c>
       <c r="G54">
-        <v>0.004480580688262847</v>
+        <v>0.003538710437524628</v>
       </c>
       <c r="H54">
-        <v>0.716161283194205</v>
+        <v>0.6364527990881551</v>
       </c>
       <c r="I54">
-        <v>0.716161283194205</v>
+        <v>0.6364527990881552</v>
       </c>
       <c r="J54">
-        <v>0.716161283194205</v>
+        <v>0.6364527990881552</v>
       </c>
       <c r="K54">
-        <v>1.00035863622865</v>
+        <v>1.00002699999999</v>
       </c>
       <c r="L54">
-        <v>0.1513507806994151</v>
+        <v>0.2205300004574725</v>
       </c>
       <c r="M54">
-        <v>1.000028689684344</v>
+        <v>1.000320000000002</v>
       </c>
       <c r="N54">
-        <v>0.1879313257955858</v>
+        <v>0.1880135855794825</v>
       </c>
       <c r="O54">
-        <v>71.6161283194205</v>
+        <v>63.64527990881552</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2959,46 +2959,46 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.03532725058799119</v>
+        <v>-0.01099467573157996</v>
       </c>
       <c r="C55">
-        <v>-24.24957820446158</v>
+        <v>10.47616196161954</v>
       </c>
       <c r="D55">
-        <v>-0.00777341460273507</v>
+        <v>0.01539999999690161</v>
       </c>
       <c r="E55">
-        <v>24.26372931035031</v>
+        <v>-10.47389947409562</v>
       </c>
       <c r="F55">
-        <v>0.02755383598525613</v>
+        <v>0.004405324265321645</v>
       </c>
       <c r="G55">
-        <v>0.01415110588872537</v>
+        <v>0.002262487523918111</v>
       </c>
       <c r="H55">
-        <v>1.272737609274176</v>
+        <v>0.5496803077191859</v>
       </c>
       <c r="I55">
-        <v>1.272737609274176</v>
+        <v>0.5496803077191859</v>
       </c>
       <c r="J55">
-        <v>1.272737609274176</v>
+        <v>0.5496803077191859</v>
       </c>
       <c r="K55">
-        <v>1.000028689684344</v>
+        <v>1.000320000000002</v>
       </c>
       <c r="L55">
-        <v>0.1879313257955858</v>
+        <v>0.1880135855794825</v>
       </c>
       <c r="M55">
-        <v>1.00061125687639</v>
+        <v>1.000104495842711</v>
       </c>
       <c r="N55">
-        <v>0.1228177457425403</v>
+        <v>0.2121251527024888</v>
       </c>
       <c r="O55">
-        <v>84.84917395161176</v>
+        <v>54.96803077191858</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3006,46 +3006,46 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.01652341461291366</v>
+        <v>-0.00605597517697351</v>
       </c>
       <c r="C56">
-        <v>24.57296250910053</v>
+        <v>-13.77744463243916</v>
       </c>
       <c r="D56">
-        <v>0.007699999995855217</v>
+        <v>0.01367991826722801</v>
       </c>
       <c r="E56">
-        <v>-24.56052184184466</v>
+        <v>13.78136013901391</v>
       </c>
       <c r="F56">
-        <v>0.02422341460876888</v>
+        <v>0.007623943090254499</v>
       </c>
       <c r="G56">
-        <v>0.01244066725586279</v>
+        <v>0.003915506574747596</v>
       </c>
       <c r="H56">
-        <v>1.288958454081844</v>
+        <v>0.7231211447632707</v>
       </c>
       <c r="I56">
-        <v>1.288958454081844</v>
+        <v>0.7231211447632705</v>
       </c>
       <c r="J56">
-        <v>1.288958454081844</v>
+        <v>0.7231211447632707</v>
       </c>
       <c r="K56">
-        <v>1.00061125687639</v>
+        <v>1.000010000000006</v>
       </c>
       <c r="L56">
-        <v>0.1228177457425403</v>
+        <v>0.2222029201407074</v>
       </c>
       <c r="M56">
-        <v>1.000104495842717</v>
+        <v>1.000294595884538</v>
       </c>
       <c r="N56">
-        <v>0.1793075863518792</v>
+        <v>0.190513673819049</v>
       </c>
       <c r="O56">
-        <v>85.93056360545629</v>
+        <v>72.31211447632707</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3053,46 +3053,46 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.913606660813819e-06</v>
+        <v>-0.001429918260605042</v>
       </c>
       <c r="C57">
-        <v>3.106004599179804</v>
+        <v>3.910127492768086</v>
       </c>
       <c r="D57">
-        <v>0.0003842937823316066</v>
+        <v>0.002043647688999374</v>
       </c>
       <c r="E57">
-        <v>-3.105805737113359</v>
+        <v>-3.909812293456712</v>
       </c>
       <c r="F57">
-        <v>0.0003872073889924204</v>
+        <v>0.0006137294283943325</v>
       </c>
       <c r="G57">
-        <v>0.0001988620664454821</v>
+        <v>0.0003151993113732487</v>
       </c>
       <c r="H57">
-        <v>0.1629645178782194</v>
+        <v>0.2051680412001605</v>
       </c>
       <c r="I57">
-        <v>0.1629645178782194</v>
+        <v>0.2051680412001604</v>
       </c>
       <c r="J57">
-        <v>0.1629645178782194</v>
+        <v>0.2051680412001605</v>
       </c>
       <c r="K57">
-        <v>1.00035863622865</v>
+        <v>1.000294595884538</v>
       </c>
       <c r="L57">
-        <v>0.1513507806994151</v>
+        <v>0.190513673819049</v>
       </c>
       <c r="M57">
-        <v>1.000294595884545</v>
+        <v>1.000214030884966</v>
       </c>
       <c r="N57">
-        <v>0.1584939635842617</v>
+        <v>0.1995091704515161</v>
       </c>
       <c r="O57">
-        <v>16.29645178782194</v>
+        <v>20.51680412001605</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3100,46 +3100,46 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.005740706232721592</v>
+        <v>0.01230635231340736</v>
       </c>
       <c r="C58">
-        <v>3.896160076280746</v>
+        <v>-17.50781940390574</v>
       </c>
       <c r="D58">
-        <v>-0.005131352353241254</v>
+        <v>1.900150176092907e-11</v>
       </c>
       <c r="E58">
-        <v>-3.895847124164864</v>
+        <v>17.51413970337523</v>
       </c>
       <c r="F58">
-        <v>0.0006093538794803375</v>
+        <v>0.01230635233240886</v>
       </c>
       <c r="G58">
-        <v>0.0003129521158813375</v>
+        <v>0.006320299469486201</v>
       </c>
       <c r="H58">
-        <v>0.2044353660558392</v>
+        <v>0.9187257954748118</v>
       </c>
       <c r="I58">
-        <v>0.2044353660558392</v>
+        <v>0.9187257954748123</v>
       </c>
       <c r="J58">
-        <v>0.2044353660558392</v>
+        <v>0.9187257954748123</v>
       </c>
       <c r="K58">
-        <v>1.000294595884545</v>
+        <v>1.000214030884966</v>
       </c>
       <c r="L58">
-        <v>0.1584939635842617</v>
+        <v>0.1995091704515161</v>
       </c>
       <c r="M58">
-        <v>1.000214030884968</v>
+        <v>1.000574859636533</v>
       </c>
       <c r="N58">
-        <v>0.1674488626477279</v>
+        <v>0.1592356265305944</v>
       </c>
       <c r="O58">
-        <v>20.44353660558392</v>
+        <v>91.87257954748122</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3147,46 +3147,46 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.01230635233801398</v>
+        <v>-0.3678651922931518</v>
       </c>
       <c r="C59">
-        <v>-17.50781940407073</v>
+        <v>25.69309530760512</v>
       </c>
       <c r="D59">
-        <v>-5.372834122052694e-12</v>
+        <v>0.3987680446229186</v>
       </c>
       <c r="E59">
-        <v>17.51413970354034</v>
+        <v>-25.67722421307526</v>
       </c>
       <c r="F59">
-        <v>0.01230635233264114</v>
+        <v>0.03090285232976686</v>
       </c>
       <c r="G59">
-        <v>0.006320299469606994</v>
+        <v>0.01587109452985658</v>
       </c>
       <c r="H59">
-        <v>0.9187257954834692</v>
+        <v>1.347867266725678</v>
       </c>
       <c r="I59">
-        <v>0.9187257954834694</v>
+        <v>1.347867266725678</v>
       </c>
       <c r="J59">
-        <v>0.9187257954834694</v>
+        <v>1.347867266725678</v>
       </c>
       <c r="K59">
-        <v>1.000214030884968</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="L59">
-        <v>0.1674488626477279</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="M59">
-        <v>1.000574859636538</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="N59">
-        <v>0.1271753187263969</v>
+        <v>0.2189475394097234</v>
       </c>
       <c r="O59">
-        <v>91.87257954834695</v>
+        <v>67.39336333628391</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3194,46 +3194,46 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.3702007266565703</v>
+        <v>-0.1976947611717645</v>
       </c>
       <c r="C60">
-        <v>24.70229265367031</v>
+        <v>25.36077130062106</v>
       </c>
       <c r="D60">
-        <v>0.39876804457686</v>
+        <v>0.22779902397677</v>
       </c>
       <c r="E60">
-        <v>-24.68762104347915</v>
+        <v>-25.34531034589651</v>
       </c>
       <c r="F60">
-        <v>0.02856731792028971</v>
+        <v>0.0301042628050055</v>
       </c>
       <c r="G60">
-        <v>0.01467161019115792</v>
+        <v>0.01546095472454567</v>
       </c>
       <c r="H60">
-        <v>1.295933084118109</v>
+        <v>1.330337525187952</v>
       </c>
       <c r="I60">
-        <v>1.295933084118109</v>
+        <v>1.330337525187952</v>
       </c>
       <c r="J60">
-        <v>1.295933084118109</v>
+        <v>1.330337525187952</v>
       </c>
       <c r="K60">
-        <v>1.000576128978829</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="L60">
-        <v>0.1376636688891406</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>1.000000000000008</v>
       </c>
       <c r="N60">
-        <v>0.2044576623006597</v>
+        <v>0.2178213278370268</v>
       </c>
       <c r="O60">
-        <v>86.39553894120729</v>
+        <v>66.51687625939761</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3241,93 +3241,46 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.695414389888786</v>
+        <v>-12.95181821534636</v>
       </c>
       <c r="C61">
-        <v>22.621767058198</v>
+        <v>13.91692037604967</v>
       </c>
       <c r="D61">
-        <v>-0.6714392758100439</v>
+        <v>12.99587985072536</v>
       </c>
       <c r="E61">
-        <v>-22.60945391318965</v>
+        <v>-13.89140817838361</v>
       </c>
       <c r="F61">
-        <v>0.02397511407874209</v>
+        <v>0.04406163537899843</v>
       </c>
       <c r="G61">
-        <v>0.01231314500834557</v>
+        <v>0.02551219766605684</v>
       </c>
       <c r="H61">
-        <v>1.187211744864963</v>
+        <v>0.9978354919381933</v>
       </c>
       <c r="I61">
-        <v>1.187211744864963</v>
+        <v>0.9978354919381933</v>
       </c>
       <c r="J61">
-        <v>1.187211744864963</v>
+        <v>0.9978354919381933</v>
       </c>
       <c r="K61">
-        <v>1.000576128978829</v>
+        <v>1.000000000000023</v>
       </c>
       <c r="L61">
-        <v>0.1376636688891406</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>0.9999999999999999</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="N61">
-        <v>0.197406454793766</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="O61">
-        <v>59.36058724324814</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>-12.07290376209585</v>
-      </c>
-      <c r="C62">
-        <v>12.72980423353556</v>
-      </c>
-      <c r="D62">
-        <v>12.11042773638302</v>
-      </c>
-      <c r="E62">
-        <v>-12.70807741742908</v>
-      </c>
-      <c r="F62">
-        <v>0.03752397428716847</v>
-      </c>
-      <c r="G62">
-        <v>0.02172681610647942</v>
-      </c>
-      <c r="H62">
-        <v>0.920837624845168</v>
-      </c>
-      <c r="I62">
-        <v>0.9208376248451681</v>
-      </c>
-      <c r="J62">
-        <v>0.9208376248451681</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>1.000576128978829</v>
-      </c>
-      <c r="N62">
-        <v>0.1376636688891406</v>
-      </c>
-      <c r="O62">
-        <v>61.38917498967788</v>
+        <v>49.89177459690966</v>
       </c>
     </row>
   </sheetData>
